--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004079272695481</v>
+        <v>0.9996053884200932</v>
       </c>
       <c r="D3">
-        <v>1.000056111302173</v>
+        <v>0.9934522184426693</v>
       </c>
       <c r="E3">
-        <v>0.9978057941295956</v>
+        <v>1.001243156727804</v>
       </c>
       <c r="F3">
         <v>1.004079272695481</v>
       </c>
       <c r="G3">
-        <v>0.9934522184426693</v>
+        <v>1.004079272695481</v>
       </c>
       <c r="H3">
-        <v>1.001243156727804</v>
+        <v>1.000056111302173</v>
       </c>
       <c r="I3">
-        <v>0.9996053884200932</v>
+        <v>1.000056111302173</v>
       </c>
       <c r="J3">
-        <v>1.000056111302173</v>
+        <v>0.9978057941295956</v>
       </c>
       <c r="K3">
         <v>1.004079272695481</v>
@@ -710,7 +662,7 @@
         <v>0.9989309527158843</v>
       </c>
       <c r="O3">
-        <v>0.9997016873865242</v>
+        <v>0.9997016873865241</v>
       </c>
       <c r="P3">
         <v>1.00064705937575</v>
@@ -728,7 +680,7 @@
         <v>0.9993736569529693</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008044515889283</v>
+        <v>0.9992476470130748</v>
       </c>
       <c r="D4">
-        <v>1.000037250976932</v>
+        <v>0.9871908795186997</v>
       </c>
       <c r="E4">
-        <v>0.9957074297342631</v>
+        <v>1.002389873954126</v>
       </c>
       <c r="F4">
         <v>1.008044515889283</v>
       </c>
       <c r="G4">
-        <v>0.9871908795186997</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="H4">
-        <v>1.002389873954126</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="I4">
-        <v>0.9992476470130748</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="J4">
-        <v>1.000037250976932</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="K4">
         <v>1.008044515889283</v>
@@ -787,10 +739,10 @@
         <v>1.00295842812244</v>
       </c>
       <c r="T4">
-        <v>0.9987695995143966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9987695995143965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01424794905598</v>
+        <v>0.9984809803450996</v>
       </c>
       <c r="D5">
-        <v>1.000781733067722</v>
+        <v>0.9767254661281187</v>
       </c>
       <c r="E5">
-        <v>0.992156065828924</v>
+        <v>1.004615044296095</v>
       </c>
       <c r="F5">
         <v>1.01424794905598</v>
       </c>
       <c r="G5">
-        <v>0.9767254661281186</v>
+        <v>1.01424794905598</v>
       </c>
       <c r="H5">
-        <v>1.004615044296095</v>
+        <v>1.000781733067722</v>
       </c>
       <c r="I5">
-        <v>0.9984809803450996</v>
+        <v>1.000781733067722</v>
       </c>
       <c r="J5">
-        <v>1.000781733067722</v>
+        <v>0.992156065828924</v>
       </c>
       <c r="K5">
         <v>1.01424794905598</v>
@@ -834,7 +786,7 @@
         <v>0.9964688994483231</v>
       </c>
       <c r="O5">
-        <v>0.9991842810642471</v>
+        <v>0.9991842810642472</v>
       </c>
       <c r="P5">
         <v>1.002395249317542</v>
@@ -852,7 +804,7 @@
         <v>0.99783453978699</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.02036364384464</v>
+        <v>0.9976958765149293</v>
       </c>
       <c r="D6">
-        <v>1.001416785941297</v>
+        <v>0.9665915891568944</v>
       </c>
       <c r="E6">
-        <v>0.9887093002183475</v>
+        <v>1.006790186687415</v>
       </c>
       <c r="F6">
         <v>1.02036364384464</v>
       </c>
       <c r="G6">
-        <v>0.9665915891568944</v>
+        <v>1.02036364384464</v>
       </c>
       <c r="H6">
-        <v>1.006790186687415</v>
+        <v>1.001416785941297</v>
       </c>
       <c r="I6">
-        <v>0.9976958765149293</v>
+        <v>1.001416785941297</v>
       </c>
       <c r="J6">
-        <v>1.001416785941297</v>
+        <v>0.9887093002183475</v>
       </c>
       <c r="K6">
         <v>1.02036364384464</v>
@@ -914,7 +866,7 @@
         <v>0.9969278970605872</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997256930910285</v>
+        <v>0.9999508641556855</v>
       </c>
       <c r="D7">
+        <v>1.000265861068155</v>
+      </c>
+      <c r="E7">
+        <v>1.000052604629472</v>
+      </c>
+      <c r="F7">
+        <v>0.9997256930910289</v>
+      </c>
+      <c r="G7">
+        <v>0.9997256930910289</v>
+      </c>
+      <c r="H7">
         <v>1.00032785616558</v>
       </c>
-      <c r="E7">
+      <c r="I7">
+        <v>1.00032785616558</v>
+      </c>
+      <c r="J7">
         <v>1.0000482834371</v>
       </c>
-      <c r="F7">
-        <v>0.9997256930910285</v>
-      </c>
-      <c r="G7">
-        <v>1.000265861068155</v>
-      </c>
-      <c r="H7">
-        <v>1.000052604629472</v>
-      </c>
-      <c r="I7">
-        <v>0.9999508641556857</v>
-      </c>
-      <c r="J7">
-        <v>1.00032785616558</v>
-      </c>
       <c r="K7">
-        <v>0.9997256930910285</v>
+        <v>0.9997256930910289</v>
       </c>
       <c r="L7">
         <v>1.0000482834371</v>
@@ -967,16 +919,16 @@
         <v>1.000033944231236</v>
       </c>
       <c r="R7">
-        <v>0.9999568814461841</v>
+        <v>0.9999568814461843</v>
       </c>
       <c r="S7">
-        <v>0.9999568814461841</v>
+        <v>0.9999568814461843</v>
       </c>
       <c r="T7">
         <v>1.000061860424504</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,40 +936,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996359668358535</v>
+        <v>0.9999548459083727</v>
       </c>
       <c r="D8">
-        <v>1.000447202243415</v>
+        <v>1.000635003917454</v>
       </c>
       <c r="E8">
+        <v>0.9999645050297844</v>
+      </c>
+      <c r="F8">
+        <v>0.9996359668358527</v>
+      </c>
+      <c r="G8">
+        <v>0.9996359668358527</v>
+      </c>
+      <c r="H8">
+        <v>1.000447202243416</v>
+      </c>
+      <c r="I8">
+        <v>1.000447202243416</v>
+      </c>
+      <c r="J8">
         <v>1.000099052588053</v>
       </c>
-      <c r="F8">
-        <v>0.9996359668358535</v>
-      </c>
-      <c r="G8">
-        <v>1.000635003917455</v>
-      </c>
-      <c r="H8">
-        <v>0.999964505029785</v>
-      </c>
-      <c r="I8">
-        <v>0.9999548459083727</v>
-      </c>
-      <c r="J8">
-        <v>1.000447202243415</v>
-      </c>
       <c r="K8">
-        <v>0.9996359668358535</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="L8">
         <v>1.000099052588053</v>
       </c>
       <c r="M8">
-        <v>1.000273127415734</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="N8">
-        <v>1.000273127415734</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="O8">
         <v>1.000170253287085</v>
@@ -1029,16 +981,16 @@
         <v>1.000060740555774</v>
       </c>
       <c r="R8">
-        <v>0.999954547125794</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="S8">
-        <v>0.999954547125794</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="T8">
         <v>1.000122762753822</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,34 +998,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000065026367057</v>
+        <v>0.9999874852715748</v>
       </c>
       <c r="D9">
-        <v>1.000277662116666</v>
+        <v>1.000417126450857</v>
       </c>
       <c r="E9">
-        <v>0.9999746518962932</v>
+        <v>0.9998723771757533</v>
       </c>
       <c r="F9">
         <v>1.000065026367057</v>
       </c>
       <c r="G9">
-        <v>1.000417126450857</v>
+        <v>1.000065026367057</v>
       </c>
       <c r="H9">
-        <v>0.9998723771757533</v>
+        <v>1.000277662116666</v>
       </c>
       <c r="I9">
-        <v>0.9999874852715748</v>
+        <v>1.000277662116666</v>
       </c>
       <c r="J9">
-        <v>1.000277662116666</v>
+        <v>0.999974651896293</v>
       </c>
       <c r="K9">
         <v>1.000065026367057</v>
       </c>
       <c r="L9">
-        <v>0.9999746518962932</v>
+        <v>0.999974651896293</v>
       </c>
       <c r="M9">
         <v>1.000126157006479</v>
@@ -1100,7 +1052,7 @@
         <v>1.0000990548797</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9994270165359904</v>
+        <v>0.9999120541462314</v>
       </c>
       <c r="D10">
-        <v>1.001016739602364</v>
+        <v>1.001500274289551</v>
       </c>
       <c r="E10">
-        <v>1.000152710179862</v>
+        <v>0.9998155960505235</v>
       </c>
       <c r="F10">
         <v>0.9994270165359904</v>
       </c>
       <c r="G10">
-        <v>1.001500274289551</v>
+        <v>0.9994270165359904</v>
       </c>
       <c r="H10">
-        <v>0.9998155960505235</v>
+        <v>1.001016739602364</v>
       </c>
       <c r="I10">
-        <v>0.9999120541462314</v>
+        <v>1.001016739602364</v>
       </c>
       <c r="J10">
-        <v>1.001016739602364</v>
+        <v>1.000152710179862</v>
       </c>
       <c r="K10">
         <v>0.9994270165359904</v>
@@ -1162,7 +1114,7 @@
         <v>1.000304065134087</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000829849356118</v>
+        <v>1.000010299894898</v>
       </c>
       <c r="D11">
-        <v>1.000677738209495</v>
+        <v>1.001218152282969</v>
       </c>
       <c r="E11">
-        <v>0.9997432219009663</v>
+        <v>0.9994022125434108</v>
       </c>
       <c r="F11">
         <v>1.000829849356118</v>
       </c>
       <c r="G11">
-        <v>1.001218152282969</v>
+        <v>1.000829849356118</v>
       </c>
       <c r="H11">
-        <v>0.9994022125434108</v>
+        <v>1.000677738209495</v>
       </c>
       <c r="I11">
-        <v>1.000010299894898</v>
+        <v>1.000677738209495</v>
       </c>
       <c r="J11">
-        <v>1.000677738209495</v>
+        <v>0.9997432219009663</v>
       </c>
       <c r="K11">
         <v>1.000829849356118</v>
@@ -1224,7 +1176,7 @@
         <v>1.00031357903131</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.109063192977181</v>
+        <v>0.9984295357935122</v>
       </c>
       <c r="D12">
-        <v>0.9494678571038061</v>
+        <v>0.8139450249381859</v>
       </c>
       <c r="E12">
-        <v>0.9527156541130148</v>
+        <v>1.025935258346493</v>
       </c>
       <c r="F12">
         <v>1.109063192977181</v>
       </c>
       <c r="G12">
-        <v>0.8139450249381859</v>
+        <v>1.109063192977181</v>
       </c>
       <c r="H12">
-        <v>1.025935258346493</v>
+        <v>0.9494678571038061</v>
       </c>
       <c r="I12">
-        <v>0.9984295357935123</v>
+        <v>0.9494678571038061</v>
       </c>
       <c r="J12">
-        <v>0.9494678571038061</v>
+        <v>0.9527156541130148</v>
       </c>
       <c r="K12">
         <v>1.109063192977181</v>
@@ -1286,7 +1238,7 @@
         <v>0.9749260872120321</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9539315096628052</v>
+        <v>0.9901037861370713</v>
       </c>
       <c r="D13">
+        <v>1.059424617727472</v>
+      </c>
+      <c r="E13">
+        <v>1.006722688232293</v>
+      </c>
+      <c r="F13">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="G13">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="H13">
         <v>1.073124679556563</v>
       </c>
-      <c r="E13">
+      <c r="I13">
+        <v>1.073124679556563</v>
+      </c>
+      <c r="J13">
         <v>1.005072393960247</v>
       </c>
-      <c r="F13">
-        <v>0.9539315096628052</v>
-      </c>
-      <c r="G13">
-        <v>1.059424617727472</v>
-      </c>
-      <c r="H13">
-        <v>1.006722688232293</v>
-      </c>
-      <c r="I13">
-        <v>0.9901037861370712</v>
-      </c>
-      <c r="J13">
-        <v>1.073124679556563</v>
-      </c>
       <c r="K13">
-        <v>0.9539315096628052</v>
+        <v>0.9539315096628049</v>
       </c>
       <c r="L13">
         <v>1.005072393960247</v>
@@ -1333,22 +1285,22 @@
         <v>1.028306587249701</v>
       </c>
       <c r="P13">
-        <v>1.010709527726539</v>
+        <v>1.010709527726538</v>
       </c>
       <c r="Q13">
-        <v>1.010709527726539</v>
+        <v>1.010709527726538</v>
       </c>
       <c r="R13">
-        <v>0.9965150232106053</v>
+        <v>0.996515023210605</v>
       </c>
       <c r="S13">
-        <v>0.9965150232106053</v>
+        <v>0.996515023210605</v>
       </c>
       <c r="T13">
         <v>1.014729945879409</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.869042162737965</v>
+        <v>0.9572249217576906</v>
       </c>
       <c r="D14">
-        <v>1.225090019647667</v>
+        <v>1.044483302036352</v>
       </c>
       <c r="E14">
-        <v>0.9932718048500814</v>
+        <v>1.072292437149501</v>
       </c>
       <c r="F14">
         <v>0.869042162737965</v>
       </c>
       <c r="G14">
-        <v>1.044483302036352</v>
+        <v>0.869042162737965</v>
       </c>
       <c r="H14">
-        <v>1.072292437149501</v>
+        <v>1.225090019647668</v>
       </c>
       <c r="I14">
-        <v>0.9572249217576906</v>
+        <v>1.225090019647668</v>
       </c>
       <c r="J14">
-        <v>1.225090019647667</v>
+        <v>0.9932718048500814</v>
       </c>
       <c r="K14">
         <v>0.869042162737965</v>
@@ -1392,13 +1344,13 @@
         <v>1.109180912248874</v>
       </c>
       <c r="O14">
-        <v>1.096884753882416</v>
+        <v>1.096884753882417</v>
       </c>
       <c r="P14">
         <v>1.029134662411905</v>
       </c>
       <c r="Q14">
-        <v>1.029134662411904</v>
+        <v>1.029134662411905</v>
       </c>
       <c r="R14">
         <v>0.9891115374934196</v>
@@ -1410,7 +1362,7 @@
         <v>1.026900774696543</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.018881546054003</v>
+        <v>0.9974445398336368</v>
       </c>
       <c r="D15">
-        <v>0.9747000332258718</v>
+        <v>0.9191395838574714</v>
       </c>
       <c r="E15">
-        <v>0.9887038079113074</v>
+        <v>1.021504866922262</v>
       </c>
       <c r="F15">
         <v>1.018881546054003</v>
       </c>
       <c r="G15">
-        <v>0.9191395838574714</v>
+        <v>1.018881546054003</v>
       </c>
       <c r="H15">
-        <v>1.021504866922262</v>
+        <v>0.9747000332258716</v>
       </c>
       <c r="I15">
-        <v>0.9974445398336368</v>
+        <v>0.9747000332258716</v>
       </c>
       <c r="J15">
-        <v>0.9747000332258718</v>
+        <v>0.9887038079113074</v>
       </c>
       <c r="K15">
         <v>1.018881546054003</v>
@@ -1448,10 +1400,10 @@
         <v>0.9887038079113074</v>
       </c>
       <c r="M15">
-        <v>0.9817019205685896</v>
+        <v>0.9817019205685895</v>
       </c>
       <c r="N15">
-        <v>0.9817019205685896</v>
+        <v>0.9817019205685895</v>
       </c>
       <c r="O15">
         <v>0.9949695693531471</v>
@@ -1472,7 +1424,7 @@
         <v>0.9867290629674255</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9983992234231776</v>
+        <v>0.9916903555962717</v>
       </c>
       <c r="D16">
-        <v>1.000640812260579</v>
+        <v>0.8846791195182852</v>
       </c>
       <c r="E16">
-        <v>1.000572255497957</v>
+        <v>1.024631648951119</v>
       </c>
       <c r="F16">
-        <v>0.9983992234231776</v>
+        <v>1.067517242934141</v>
       </c>
       <c r="G16">
-        <v>1.001484240236526</v>
+        <v>1.067517242934141</v>
       </c>
       <c r="H16">
-        <v>1.000071926568565</v>
+        <v>1.007898761581609</v>
       </c>
       <c r="I16">
-        <v>0.9999365421376439</v>
+        <v>1.007898761581609</v>
       </c>
       <c r="J16">
-        <v>1.000640812260579</v>
+        <v>0.9611055859492399</v>
       </c>
       <c r="K16">
-        <v>0.9983992234231776</v>
+        <v>1.067517242934141</v>
       </c>
       <c r="L16">
-        <v>1.000572255497957</v>
+        <v>0.9611055859492399</v>
       </c>
       <c r="M16">
-        <v>1.000606533879268</v>
+        <v>0.9845021737654245</v>
       </c>
       <c r="N16">
-        <v>1.000606533879268</v>
+        <v>0.9845021737654245</v>
       </c>
       <c r="O16">
-        <v>1.000428331442367</v>
+        <v>0.9978786654939893</v>
       </c>
       <c r="P16">
-        <v>0.999870763727238</v>
+        <v>1.01217386348833</v>
       </c>
       <c r="Q16">
-        <v>0.999870763727238</v>
+        <v>1.01217386348833</v>
       </c>
       <c r="R16">
-        <v>0.999502878651223</v>
+        <v>1.026009708349783</v>
       </c>
       <c r="S16">
-        <v>0.999502878651223</v>
+        <v>1.026009708349783</v>
       </c>
       <c r="T16">
-        <v>1.000184166687408</v>
+        <v>0.9895871190884443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001644908188163</v>
+        <v>0.9917352053653926</v>
       </c>
       <c r="D17">
-        <v>0.9996655245847991</v>
+        <v>0.9312323558947232</v>
       </c>
       <c r="E17">
-        <v>0.9993158025385912</v>
+        <v>1.020801670959478</v>
       </c>
       <c r="F17">
-        <v>1.001644908188163</v>
+        <v>1.031745908548341</v>
       </c>
       <c r="G17">
-        <v>0.9983497907190984</v>
+        <v>1.031745908548341</v>
       </c>
       <c r="H17">
-        <v>1.000047358002037</v>
+        <v>1.020685602925075</v>
       </c>
       <c r="I17">
-        <v>0.9999919311780319</v>
+        <v>1.020685602925075</v>
       </c>
       <c r="J17">
-        <v>0.9996655245847991</v>
+        <v>0.9757472300845478</v>
       </c>
       <c r="K17">
-        <v>1.001644908188163</v>
+        <v>1.031745908548341</v>
       </c>
       <c r="L17">
-        <v>0.9993158025385912</v>
+        <v>0.9757472300845478</v>
       </c>
       <c r="M17">
-        <v>0.9994906635616951</v>
+        <v>0.9982164165048113</v>
       </c>
       <c r="N17">
-        <v>0.9994906635616951</v>
+        <v>0.9982164165048113</v>
       </c>
       <c r="O17">
-        <v>0.9996762283751425</v>
+        <v>1.005744834656367</v>
       </c>
       <c r="P17">
-        <v>1.000208745103851</v>
+        <v>1.009392913852655</v>
       </c>
       <c r="Q17">
-        <v>1.000208745103851</v>
+        <v>1.009392913852655</v>
       </c>
       <c r="R17">
-        <v>1.000567785874929</v>
+        <v>1.014981162526576</v>
       </c>
       <c r="S17">
-        <v>1.000567785874929</v>
+        <v>1.014981162526576</v>
       </c>
       <c r="T17">
-        <v>0.9998358858684536</v>
+        <v>0.9953246622962597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9972822023010334</v>
+        <v>0.9919991496634896</v>
       </c>
       <c r="D18">
-        <v>1.001447096620321</v>
+        <v>1.02344921829446</v>
       </c>
       <c r="E18">
-        <v>1.000795553994934</v>
+        <v>1.012845847892839</v>
       </c>
       <c r="F18">
-        <v>0.9972822023010334</v>
+        <v>0.9615059119622862</v>
       </c>
       <c r="G18">
-        <v>1.001653109060683</v>
+        <v>0.9615059119622862</v>
       </c>
       <c r="H18">
-        <v>1.000543946269374</v>
+        <v>1.045207748605022</v>
       </c>
       <c r="I18">
-        <v>0.9997317362045341</v>
+        <v>1.045207748605022</v>
       </c>
       <c r="J18">
-        <v>1.001447096620321</v>
+        <v>1.004742183351274</v>
       </c>
       <c r="K18">
-        <v>0.9972822023010334</v>
+        <v>0.9615059119622862</v>
       </c>
       <c r="L18">
-        <v>1.000795553994934</v>
+        <v>1.004742183351274</v>
       </c>
       <c r="M18">
-        <v>1.001121325307627</v>
+        <v>1.024974965978148</v>
       </c>
       <c r="N18">
-        <v>1.001121325307627</v>
+        <v>1.024974965978148</v>
       </c>
       <c r="O18">
-        <v>1.000928865628209</v>
+        <v>1.020931926616378</v>
       </c>
       <c r="P18">
-        <v>0.9998416176387627</v>
+        <v>1.003818614639528</v>
       </c>
       <c r="Q18">
-        <v>0.9998416176387627</v>
+        <v>1.003818614639528</v>
       </c>
       <c r="R18">
-        <v>0.9992017638043303</v>
+        <v>0.9932404389702172</v>
       </c>
       <c r="S18">
-        <v>0.9992017638043303</v>
+        <v>0.9932404389702172</v>
       </c>
       <c r="T18">
-        <v>1.000242274075147</v>
+        <v>1.006625009961562</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9887443817820745</v>
+        <v>0.9905754699802765</v>
       </c>
       <c r="D19">
+        <v>1.040944046825794</v>
+      </c>
+      <c r="E19">
+        <v>1.013769105285833</v>
+      </c>
+      <c r="F19">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="G19">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="H19">
+        <v>1.057136258940385</v>
+      </c>
+      <c r="I19">
+        <v>1.057136258940385</v>
+      </c>
+      <c r="J19">
+        <v>1.009424154582177</v>
+      </c>
+      <c r="K19">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="L19">
+        <v>1.009424154582177</v>
+      </c>
+      <c r="M19">
+        <v>1.033280206761281</v>
+      </c>
+      <c r="N19">
+        <v>1.033280206761281</v>
+      </c>
+      <c r="O19">
+        <v>1.026776506269465</v>
+      </c>
+      <c r="P19">
+        <v>1.003993908773684</v>
+      </c>
+      <c r="Q19">
+        <v>1.003993908773684</v>
+      </c>
+      <c r="R19">
+        <v>0.9893507597798863</v>
+      </c>
+      <c r="S19">
+        <v>0.9893507597798863</v>
+      </c>
+      <c r="T19">
+        <v>1.009545058068826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.999936542137644</v>
+      </c>
+      <c r="D20">
+        <v>1.001484240236526</v>
+      </c>
+      <c r="E20">
+        <v>1.000071926568565</v>
+      </c>
+      <c r="F20">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="G20">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="H20">
+        <v>1.000640812260579</v>
+      </c>
+      <c r="I20">
+        <v>1.000640812260579</v>
+      </c>
+      <c r="J20">
+        <v>1.000572255497957</v>
+      </c>
+      <c r="K20">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="L20">
+        <v>1.000572255497957</v>
+      </c>
+      <c r="M20">
+        <v>1.000606533879268</v>
+      </c>
+      <c r="N20">
+        <v>1.000606533879268</v>
+      </c>
+      <c r="O20">
+        <v>1.000428331442367</v>
+      </c>
+      <c r="P20">
+        <v>0.999870763727238</v>
+      </c>
+      <c r="Q20">
+        <v>0.999870763727238</v>
+      </c>
+      <c r="R20">
+        <v>0.999502878651223</v>
+      </c>
+      <c r="S20">
+        <v>0.999502878651223</v>
+      </c>
+      <c r="T20">
+        <v>1.000184166687408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999919311780319</v>
+      </c>
+      <c r="D21">
+        <v>0.9983497907190984</v>
+      </c>
+      <c r="E21">
+        <v>1.000047358002037</v>
+      </c>
+      <c r="F21">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="G21">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="H21">
+        <v>0.9996655245847991</v>
+      </c>
+      <c r="I21">
+        <v>0.9996655245847991</v>
+      </c>
+      <c r="J21">
+        <v>0.9993158025385912</v>
+      </c>
+      <c r="K21">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="L21">
+        <v>0.9993158025385912</v>
+      </c>
+      <c r="M21">
+        <v>0.9994906635616951</v>
+      </c>
+      <c r="N21">
+        <v>0.9994906635616951</v>
+      </c>
+      <c r="O21">
+        <v>0.9996762283751425</v>
+      </c>
+      <c r="P21">
+        <v>1.000208745103851</v>
+      </c>
+      <c r="Q21">
+        <v>1.000208745103851</v>
+      </c>
+      <c r="R21">
+        <v>1.000567785874929</v>
+      </c>
+      <c r="S21">
+        <v>1.000567785874929</v>
+      </c>
+      <c r="T21">
+        <v>0.9998358858684536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997317362045347</v>
+      </c>
+      <c r="D22">
+        <v>1.001653109060683</v>
+      </c>
+      <c r="E22">
+        <v>1.000543946269374</v>
+      </c>
+      <c r="F22">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="G22">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="H22">
+        <v>1.001447096620321</v>
+      </c>
+      <c r="I22">
+        <v>1.001447096620321</v>
+      </c>
+      <c r="J22">
+        <v>1.000795553994934</v>
+      </c>
+      <c r="K22">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="L22">
+        <v>1.000795553994934</v>
+      </c>
+      <c r="M22">
+        <v>1.001121325307627</v>
+      </c>
+      <c r="N22">
+        <v>1.001121325307627</v>
+      </c>
+      <c r="O22">
+        <v>1.000928865628209</v>
+      </c>
+      <c r="P22">
+        <v>0.9998416176387624</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998416176387624</v>
+      </c>
+      <c r="R22">
+        <v>0.9992017638043301</v>
+      </c>
+      <c r="S22">
+        <v>0.9992017638043301</v>
+      </c>
+      <c r="T22">
+        <v>1.000242274075146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9993609335869809</v>
+      </c>
+      <c r="D23">
+        <v>1.007527058861167</v>
+      </c>
+      <c r="E23">
+        <v>1.001545656278879</v>
+      </c>
+      <c r="F23">
+        <v>0.9887443817820742</v>
+      </c>
+      <c r="G23">
+        <v>0.9887443817820742</v>
+      </c>
+      <c r="H23">
         <v>1.004376702498299</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.004376702498299</v>
+      </c>
+      <c r="J23">
         <v>1.003733753017434</v>
       </c>
-      <c r="F19">
-        <v>0.9887443817820745</v>
-      </c>
-      <c r="G19">
-        <v>1.007527058861167</v>
-      </c>
-      <c r="H19">
-        <v>1.001545656278879</v>
-      </c>
-      <c r="I19">
-        <v>0.9993609335869809</v>
-      </c>
-      <c r="J19">
-        <v>1.004376702498299</v>
-      </c>
-      <c r="K19">
-        <v>0.9887443817820745</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.9887443817820742</v>
+      </c>
+      <c r="L23">
         <v>1.003733753017434</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.004055227757867</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.004055227757867</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.003218703931537</v>
       </c>
-      <c r="P19">
-        <v>0.9989516124326028</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
         <v>0.9989516124326027</v>
       </c>
-      <c r="R19">
-        <v>0.9963998047699706</v>
-      </c>
-      <c r="S19">
-        <v>0.9963998047699706</v>
-      </c>
-      <c r="T19">
+      <c r="Q23">
+        <v>0.9989516124326027</v>
+      </c>
+      <c r="R23">
+        <v>0.9963998047699705</v>
+      </c>
+      <c r="S23">
+        <v>0.9963998047699705</v>
+      </c>
+      <c r="T23">
         <v>1.000881414337472</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9996053884200932</v>
+        <v>0.9917139972190193</v>
       </c>
       <c r="D3">
-        <v>0.9934522184426693</v>
+        <v>1.029037140922189</v>
       </c>
       <c r="E3">
-        <v>1.001243156727804</v>
+        <v>1.012671839632563</v>
       </c>
       <c r="F3">
-        <v>1.004079272695481</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="G3">
-        <v>1.004079272695481</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="H3">
-        <v>1.000056111302173</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="I3">
-        <v>1.000056111302173</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="J3">
-        <v>0.9978057941295956</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="K3">
-        <v>1.004079272695481</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="L3">
-        <v>0.9978057941295956</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="M3">
-        <v>0.9989309527158843</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="N3">
-        <v>0.9989309527158843</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="O3">
-        <v>0.9997016873865241</v>
+        <v>1.022444486356868</v>
       </c>
       <c r="P3">
-        <v>1.00064705937575</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="Q3">
-        <v>1.00064705937575</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="R3">
-        <v>1.001505112705683</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="S3">
-        <v>1.001505112705683</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="T3">
-        <v>0.9993736569529693</v>
+        <v>1.007551510875359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9992476470130748</v>
+        <v>0.9917733943961957</v>
       </c>
       <c r="D4">
-        <v>0.9871908795186997</v>
+        <v>1.026822193990867</v>
       </c>
       <c r="E4">
-        <v>1.002389873954126</v>
+        <v>1.012939352773015</v>
       </c>
       <c r="F4">
-        <v>1.008044515889283</v>
+        <v>0.9584406188529641</v>
       </c>
       <c r="G4">
-        <v>1.008044515889283</v>
+        <v>0.9584406188529641</v>
       </c>
       <c r="H4">
-        <v>1.000037250976932</v>
+        <v>1.047340103934959</v>
       </c>
       <c r="I4">
-        <v>1.000037250976932</v>
+        <v>1.047340103934959</v>
       </c>
       <c r="J4">
-        <v>0.9957074297342631</v>
+        <v>1.005718696296119</v>
       </c>
       <c r="K4">
-        <v>1.008044515889283</v>
+        <v>0.9584406188529641</v>
       </c>
       <c r="L4">
-        <v>0.9957074297342631</v>
+        <v>1.005718696296119</v>
       </c>
       <c r="M4">
-        <v>0.9978723403555974</v>
+        <v>1.026529400115539</v>
       </c>
       <c r="N4">
-        <v>0.9978723403555974</v>
+        <v>1.026529400115539</v>
       </c>
       <c r="O4">
-        <v>0.9993781848884403</v>
+        <v>1.021999384334698</v>
       </c>
       <c r="P4">
-        <v>1.001263065533493</v>
+        <v>1.003833139694681</v>
       </c>
       <c r="Q4">
-        <v>1.001263065533493</v>
+        <v>1.003833139694681</v>
       </c>
       <c r="R4">
-        <v>1.00295842812244</v>
+        <v>0.9924850094842514</v>
       </c>
       <c r="S4">
-        <v>1.00295842812244</v>
+        <v>0.9924850094842514</v>
       </c>
       <c r="T4">
-        <v>0.9987695995143965</v>
+        <v>1.00717239337402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9984809803450996</v>
+        <v>0.9916024860107812</v>
       </c>
       <c r="D5">
-        <v>0.9767254661281187</v>
+        <v>1.03326947929919</v>
       </c>
       <c r="E5">
-        <v>1.004615044296095</v>
+        <v>1.012127392183289</v>
       </c>
       <c r="F5">
-        <v>1.01424794905598</v>
+        <v>0.9550157417250666</v>
       </c>
       <c r="G5">
-        <v>1.01424794905598</v>
+        <v>0.9550157417250666</v>
       </c>
       <c r="H5">
-        <v>1.000781733067722</v>
+        <v>1.050644458167114</v>
       </c>
       <c r="I5">
-        <v>1.000781733067722</v>
+        <v>1.050644458167114</v>
       </c>
       <c r="J5">
-        <v>0.992156065828924</v>
+        <v>1.007050561967653</v>
       </c>
       <c r="K5">
-        <v>1.01424794905598</v>
+        <v>0.9550157417250666</v>
       </c>
       <c r="L5">
-        <v>0.992156065828924</v>
+        <v>1.007050561967653</v>
       </c>
       <c r="M5">
-        <v>0.9964688994483231</v>
+        <v>1.028847510067384</v>
       </c>
       <c r="N5">
-        <v>0.9964688994483231</v>
+        <v>1.028847510067384</v>
       </c>
       <c r="O5">
-        <v>0.9991842810642472</v>
+        <v>1.023274137439352</v>
       </c>
       <c r="P5">
-        <v>1.002395249317542</v>
+        <v>1.004236920619945</v>
       </c>
       <c r="Q5">
-        <v>1.002395249317542</v>
+        <v>1.004236920619945</v>
       </c>
       <c r="R5">
-        <v>1.005358424252152</v>
+        <v>0.9919316258962252</v>
       </c>
       <c r="S5">
-        <v>1.005358424252152</v>
+        <v>0.9919316258962252</v>
       </c>
       <c r="T5">
-        <v>0.99783453978699</v>
+        <v>1.008285019892182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9976958765149293</v>
+        <v>0.9914998984090909</v>
       </c>
       <c r="D6">
-        <v>0.9665915891568944</v>
+        <v>1.037252009602273</v>
       </c>
       <c r="E6">
-        <v>1.006790186687415</v>
+        <v>1.011575744261365</v>
       </c>
       <c r="F6">
-        <v>1.02036364384464</v>
+        <v>0.953073431988636</v>
       </c>
       <c r="G6">
-        <v>1.02036364384464</v>
+        <v>0.953073431988636</v>
       </c>
       <c r="H6">
-        <v>1.001416785941297</v>
+        <v>1.052703359602275</v>
       </c>
       <c r="I6">
-        <v>1.001416785941297</v>
+        <v>1.052703359602275</v>
       </c>
       <c r="J6">
-        <v>0.9887093002183475</v>
+        <v>1.00781143375</v>
       </c>
       <c r="K6">
-        <v>1.02036364384464</v>
+        <v>0.953073431988636</v>
       </c>
       <c r="L6">
-        <v>0.9887093002183475</v>
+        <v>1.00781143375</v>
       </c>
       <c r="M6">
-        <v>0.9950630430798222</v>
+        <v>1.030257396676137</v>
       </c>
       <c r="N6">
-        <v>0.9950630430798222</v>
+        <v>1.030257396676137</v>
       </c>
       <c r="O6">
-        <v>0.9989720909490197</v>
+        <v>1.024030179204547</v>
       </c>
       <c r="P6">
-        <v>1.003496576668095</v>
+        <v>1.00452940844697</v>
       </c>
       <c r="Q6">
-        <v>1.003496576668095</v>
+        <v>1.00452940844697</v>
       </c>
       <c r="R6">
-        <v>1.007713343462231</v>
+        <v>0.9916654143323866</v>
       </c>
       <c r="S6">
-        <v>1.007713343462231</v>
+        <v>0.9916654143323866</v>
       </c>
       <c r="T6">
-        <v>0.9969278970605872</v>
+        <v>1.008985979602273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999508641556855</v>
+        <v>1.10918658349565</v>
       </c>
       <c r="D7">
-        <v>1.000265861068155</v>
+        <v>1.175337918011751</v>
       </c>
       <c r="E7">
-        <v>1.000052604629472</v>
+        <v>0.7641199539936531</v>
       </c>
       <c r="F7">
-        <v>0.9997256930910289</v>
+        <v>1.212760572456755</v>
       </c>
       <c r="G7">
-        <v>0.9997256930910289</v>
+        <v>1.212760572456755</v>
       </c>
       <c r="H7">
-        <v>1.00032785616558</v>
+        <v>0.5461608477485359</v>
       </c>
       <c r="I7">
-        <v>1.00032785616558</v>
+        <v>0.5461608477485359</v>
       </c>
       <c r="J7">
-        <v>1.0000482834371</v>
+        <v>1.06702196118166</v>
       </c>
       <c r="K7">
-        <v>0.9997256930910289</v>
+        <v>1.212760572456755</v>
       </c>
       <c r="L7">
-        <v>1.0000482834371</v>
+        <v>1.06702196118166</v>
       </c>
       <c r="M7">
-        <v>1.00018806980134</v>
+        <v>0.8065914044650979</v>
       </c>
       <c r="N7">
-        <v>1.00018806980134</v>
+        <v>0.8065914044650979</v>
       </c>
       <c r="O7">
-        <v>1.000142914744051</v>
+        <v>0.7924342543079496</v>
       </c>
       <c r="P7">
-        <v>1.000033944231236</v>
+        <v>0.9419811271289836</v>
       </c>
       <c r="Q7">
-        <v>1.000033944231236</v>
+        <v>0.9419811271289836</v>
       </c>
       <c r="R7">
-        <v>0.9999568814461843</v>
+        <v>1.009675988460927</v>
       </c>
       <c r="S7">
-        <v>0.9999568814461843</v>
+        <v>1.009675988460927</v>
       </c>
       <c r="T7">
-        <v>1.000061860424504</v>
+        <v>0.9790979728146674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999548459083727</v>
+        <v>1.108665750252519</v>
       </c>
       <c r="D8">
-        <v>1.000635003917454</v>
+        <v>1.175003648505654</v>
       </c>
       <c r="E8">
-        <v>0.9999645050297844</v>
+        <v>0.7650352361579889</v>
       </c>
       <c r="F8">
-        <v>0.9996359668358527</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="G8">
-        <v>0.9996359668358527</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="H8">
-        <v>1.000447202243416</v>
+        <v>0.5486163265634254</v>
       </c>
       <c r="I8">
-        <v>1.000447202243416</v>
+        <v>0.5486163265634254</v>
       </c>
       <c r="J8">
-        <v>1.000099052588053</v>
+        <v>1.066641852591811</v>
       </c>
       <c r="K8">
-        <v>0.9996359668358527</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="L8">
-        <v>1.000099052588053</v>
+        <v>1.066641852591811</v>
       </c>
       <c r="M8">
-        <v>1.000273127415735</v>
+        <v>0.807629089577618</v>
       </c>
       <c r="N8">
-        <v>1.000273127415735</v>
+        <v>0.807629089577618</v>
       </c>
       <c r="O8">
-        <v>1.000170253287085</v>
+        <v>0.7934311384377416</v>
       </c>
       <c r="P8">
-        <v>1.000060740555774</v>
+        <v>0.9424063177776092</v>
       </c>
       <c r="Q8">
-        <v>1.000060740555774</v>
+        <v>0.9424063177776092</v>
       </c>
       <c r="R8">
-        <v>0.9999545471257938</v>
+        <v>1.009794931877605</v>
       </c>
       <c r="S8">
-        <v>0.9999545471257938</v>
+        <v>1.009794931877605</v>
       </c>
       <c r="T8">
-        <v>1.000122762753822</v>
+        <v>0.9793205980414982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999874852715748</v>
+        <v>1.108100457079533</v>
       </c>
       <c r="D9">
-        <v>1.000417126450857</v>
+        <v>1.175814805686992</v>
       </c>
       <c r="E9">
-        <v>0.9998723771757533</v>
+        <v>0.7660326729673739</v>
       </c>
       <c r="F9">
-        <v>1.000065026367057</v>
+        <v>1.209811075527257</v>
       </c>
       <c r="G9">
-        <v>1.000065026367057</v>
+        <v>1.209811075527257</v>
       </c>
       <c r="H9">
-        <v>1.000277662116666</v>
+        <v>0.5515470672476087</v>
       </c>
       <c r="I9">
-        <v>1.000277662116666</v>
+        <v>0.5515470672476087</v>
       </c>
       <c r="J9">
-        <v>0.999974651896293</v>
+        <v>1.066745298241914</v>
       </c>
       <c r="K9">
-        <v>1.000065026367057</v>
+        <v>1.209811075527257</v>
       </c>
       <c r="L9">
-        <v>0.999974651896293</v>
+        <v>1.066745298241914</v>
       </c>
       <c r="M9">
-        <v>1.000126157006479</v>
+        <v>0.8091461827447615</v>
       </c>
       <c r="N9">
-        <v>1.000126157006479</v>
+        <v>0.8091461827447615</v>
       </c>
       <c r="O9">
-        <v>1.000041563729571</v>
+        <v>0.7947750128189656</v>
       </c>
       <c r="P9">
-        <v>1.000105780126672</v>
+        <v>0.9427011470055934</v>
       </c>
       <c r="Q9">
-        <v>1.000105780126672</v>
+        <v>0.9427011470055934</v>
       </c>
       <c r="R9">
-        <v>1.000095591686768</v>
+        <v>1.009478629136009</v>
       </c>
       <c r="S9">
-        <v>1.000095591686768</v>
+        <v>1.009478629136009</v>
       </c>
       <c r="T9">
-        <v>1.0000990548797</v>
+        <v>0.9796752294584464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999120541462314</v>
+        <v>1.107615067023919</v>
       </c>
       <c r="D10">
-        <v>1.001500274289551</v>
+        <v>1.173010590535789</v>
       </c>
       <c r="E10">
-        <v>0.9998155960505235</v>
+        <v>0.7665777519067194</v>
       </c>
       <c r="F10">
-        <v>0.9994270165359904</v>
+        <v>1.212835679685417</v>
       </c>
       <c r="G10">
-        <v>0.9994270165359904</v>
+        <v>1.212835679685417</v>
       </c>
       <c r="H10">
-        <v>1.001016739602364</v>
+        <v>0.5535405090892591</v>
       </c>
       <c r="I10">
-        <v>1.001016739602364</v>
+        <v>0.5535405090892591</v>
       </c>
       <c r="J10">
-        <v>1.000152710179862</v>
+        <v>1.064923197068418</v>
       </c>
       <c r="K10">
-        <v>0.9994270165359904</v>
+        <v>1.212835679685417</v>
       </c>
       <c r="L10">
-        <v>1.000152710179862</v>
+        <v>1.064923197068418</v>
       </c>
       <c r="M10">
-        <v>1.000584724891113</v>
+        <v>0.8092318530788384</v>
       </c>
       <c r="N10">
-        <v>1.000584724891113</v>
+        <v>0.8092318530788384</v>
       </c>
       <c r="O10">
-        <v>1.000328348610916</v>
+        <v>0.7950138193547988</v>
       </c>
       <c r="P10">
-        <v>1.000198822106072</v>
+        <v>0.943766461947698</v>
       </c>
       <c r="Q10">
-        <v>1.000198822106072</v>
+        <v>0.943766461947698</v>
       </c>
       <c r="R10">
-        <v>1.000005870713552</v>
+        <v>1.011033766382128</v>
       </c>
       <c r="S10">
-        <v>1.000005870713552</v>
+        <v>1.011033766382128</v>
       </c>
       <c r="T10">
-        <v>1.000304065134087</v>
+        <v>0.9797504658849201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000010299894898</v>
+        <v>1.000049772319088</v>
       </c>
       <c r="D11">
-        <v>1.001218152282969</v>
+        <v>0.9929438179920967</v>
       </c>
       <c r="E11">
-        <v>0.9994022125434108</v>
+        <v>1.00038129114111</v>
       </c>
       <c r="F11">
-        <v>1.000829849356118</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="G11">
-        <v>1.000829849356118</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="H11">
-        <v>1.000677738209495</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="I11">
-        <v>1.000677738209495</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="J11">
-        <v>0.9997432219009663</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="K11">
-        <v>1.000829849356118</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="L11">
-        <v>0.9997432219009663</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="M11">
-        <v>1.000210480055231</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="N11">
-        <v>1.000210480055231</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="O11">
-        <v>0.9999410575512907</v>
+        <v>0.998667149514584</v>
       </c>
       <c r="P11">
-        <v>1.00041693648886</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="Q11">
-        <v>1.00041693648886</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="R11">
-        <v>1.000520164705675</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="S11">
-        <v>1.000520164705675</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="T11">
-        <v>1.00031357903131</v>
+        <v>0.9991479552890495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984295357935122</v>
+        <v>1.000372031835551</v>
       </c>
       <c r="D12">
-        <v>0.8139450249381859</v>
+        <v>0.997848695003041</v>
       </c>
       <c r="E12">
-        <v>1.025935258346493</v>
+        <v>0.9993774008816889</v>
       </c>
       <c r="F12">
-        <v>1.109063192977181</v>
+        <v>1.002976240296152</v>
       </c>
       <c r="G12">
-        <v>1.109063192977181</v>
+        <v>1.002976240296152</v>
       </c>
       <c r="H12">
-        <v>0.9494678571038061</v>
+        <v>0.997733760971106</v>
       </c>
       <c r="I12">
-        <v>0.9494678571038061</v>
+        <v>0.997733760971106</v>
       </c>
       <c r="J12">
-        <v>0.9527156541130148</v>
+        <v>0.9993203191547748</v>
       </c>
       <c r="K12">
-        <v>1.109063192977181</v>
+        <v>1.002976240296152</v>
       </c>
       <c r="L12">
-        <v>0.9527156541130148</v>
+        <v>0.9993203191547748</v>
       </c>
       <c r="M12">
-        <v>0.9510917556084104</v>
+        <v>0.9985270400629405</v>
       </c>
       <c r="N12">
-        <v>0.9510917556084104</v>
+        <v>0.9985270400629405</v>
       </c>
       <c r="O12">
-        <v>0.9760395898544378</v>
+        <v>0.9988104936691901</v>
       </c>
       <c r="P12">
-        <v>1.003748901398001</v>
+        <v>1.000010106807344</v>
       </c>
       <c r="Q12">
-        <v>1.003748901398001</v>
+        <v>1.000010106807344</v>
       </c>
       <c r="R12">
-        <v>1.030077474292796</v>
+        <v>1.000751640179546</v>
       </c>
       <c r="S12">
-        <v>1.030077474292796</v>
+        <v>1.000751640179546</v>
       </c>
       <c r="T12">
-        <v>0.9749260872120321</v>
+        <v>0.9996047413570522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9901037861370713</v>
+        <v>1.001511445508616</v>
       </c>
       <c r="D13">
-        <v>1.059424617727472</v>
+        <v>0.9924963168534954</v>
       </c>
       <c r="E13">
-        <v>1.006722688232293</v>
+        <v>0.9974156944495648</v>
       </c>
       <c r="F13">
-        <v>0.9539315096628049</v>
+        <v>1.01095955627207</v>
       </c>
       <c r="G13">
-        <v>0.9539315096628049</v>
+        <v>1.01095955627207</v>
       </c>
       <c r="H13">
-        <v>1.073124679556563</v>
+        <v>0.9912392289988557</v>
       </c>
       <c r="I13">
-        <v>1.073124679556563</v>
+        <v>0.9912392289988557</v>
       </c>
       <c r="J13">
-        <v>1.005072393960247</v>
+        <v>0.9976707836289551</v>
       </c>
       <c r="K13">
-        <v>0.9539315096628049</v>
+        <v>1.01095955627207</v>
       </c>
       <c r="L13">
-        <v>1.005072393960247</v>
+        <v>0.9976707836289551</v>
       </c>
       <c r="M13">
-        <v>1.039098536758405</v>
+        <v>0.9944550063139055</v>
       </c>
       <c r="N13">
-        <v>1.039098536758405</v>
+        <v>0.9944550063139055</v>
       </c>
       <c r="O13">
-        <v>1.028306587249701</v>
+        <v>0.9954419023591252</v>
       </c>
       <c r="P13">
-        <v>1.010709527726538</v>
+        <v>0.9999565229666268</v>
       </c>
       <c r="Q13">
-        <v>1.010709527726538</v>
+        <v>0.9999565229666268</v>
       </c>
       <c r="R13">
-        <v>0.996515023210605</v>
+        <v>1.002707281292988</v>
       </c>
       <c r="S13">
-        <v>0.996515023210605</v>
+        <v>1.002707281292988</v>
       </c>
       <c r="T13">
-        <v>1.014729945879409</v>
+        <v>0.9985488376185928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9572249217576906</v>
+        <v>0.9988847369279955</v>
       </c>
       <c r="D14">
-        <v>1.044483302036352</v>
+        <v>0.9827444298634819</v>
       </c>
       <c r="E14">
-        <v>1.072292437149501</v>
+        <v>1.003416940141192</v>
       </c>
       <c r="F14">
-        <v>0.869042162737965</v>
+        <v>1.010540958281527</v>
       </c>
       <c r="G14">
-        <v>0.869042162737965</v>
+        <v>1.010540958281527</v>
       </c>
       <c r="H14">
-        <v>1.225090019647668</v>
+        <v>1.000576350322714</v>
       </c>
       <c r="I14">
-        <v>1.225090019647668</v>
+        <v>1.000576350322714</v>
       </c>
       <c r="J14">
-        <v>0.9932718048500814</v>
+        <v>0.9941891948198476</v>
       </c>
       <c r="K14">
-        <v>0.869042162737965</v>
+        <v>1.010540958281527</v>
       </c>
       <c r="L14">
-        <v>0.9932718048500814</v>
+        <v>0.9941891948198476</v>
       </c>
       <c r="M14">
-        <v>1.109180912248874</v>
+        <v>0.9973827725712809</v>
       </c>
       <c r="N14">
-        <v>1.109180912248874</v>
+        <v>0.9973827725712809</v>
       </c>
       <c r="O14">
-        <v>1.096884753882417</v>
+        <v>0.9993941617612513</v>
       </c>
       <c r="P14">
-        <v>1.029134662411905</v>
+        <v>1.001768834474696</v>
       </c>
       <c r="Q14">
-        <v>1.029134662411905</v>
+        <v>1.001768834474696</v>
       </c>
       <c r="R14">
-        <v>0.9891115374934196</v>
+        <v>1.003961865426404</v>
       </c>
       <c r="S14">
-        <v>0.9891115374934196</v>
+        <v>1.003961865426404</v>
       </c>
       <c r="T14">
-        <v>1.026900774696543</v>
+        <v>0.9983921017261262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9974445398336368</v>
+        <v>0.9996053884200932</v>
       </c>
       <c r="D15">
-        <v>0.9191395838574714</v>
+        <v>0.9934522184426693</v>
       </c>
       <c r="E15">
-        <v>1.021504866922262</v>
+        <v>1.001243156727804</v>
       </c>
       <c r="F15">
-        <v>1.018881546054003</v>
+        <v>1.004079272695481</v>
       </c>
       <c r="G15">
-        <v>1.018881546054003</v>
+        <v>1.004079272695481</v>
       </c>
       <c r="H15">
-        <v>0.9747000332258716</v>
+        <v>1.000056111302173</v>
       </c>
       <c r="I15">
-        <v>0.9747000332258716</v>
+        <v>1.000056111302173</v>
       </c>
       <c r="J15">
-        <v>0.9887038079113074</v>
+        <v>0.9978057941295956</v>
       </c>
       <c r="K15">
-        <v>1.018881546054003</v>
+        <v>1.004079272695481</v>
       </c>
       <c r="L15">
-        <v>0.9887038079113074</v>
+        <v>0.9978057941295956</v>
       </c>
       <c r="M15">
-        <v>0.9817019205685895</v>
+        <v>0.9989309527158843</v>
       </c>
       <c r="N15">
-        <v>0.9817019205685895</v>
+        <v>0.9989309527158843</v>
       </c>
       <c r="O15">
-        <v>0.9949695693531471</v>
+        <v>0.9997016873865241</v>
       </c>
       <c r="P15">
-        <v>0.9940951290637274</v>
+        <v>1.00064705937575</v>
       </c>
       <c r="Q15">
-        <v>0.9940951290637274</v>
+        <v>1.00064705937575</v>
       </c>
       <c r="R15">
-        <v>1.000291733311296</v>
+        <v>1.001505112705683</v>
       </c>
       <c r="S15">
-        <v>1.000291733311296</v>
+        <v>1.001505112705683</v>
       </c>
       <c r="T15">
-        <v>0.9867290629674255</v>
+        <v>0.9993736569529693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9916903555962717</v>
+        <v>0.9992476470130748</v>
       </c>
       <c r="D16">
-        <v>0.8846791195182852</v>
+        <v>0.9871908795186997</v>
       </c>
       <c r="E16">
-        <v>1.024631648951119</v>
+        <v>1.002389873954126</v>
       </c>
       <c r="F16">
-        <v>1.067517242934141</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="G16">
-        <v>1.067517242934141</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="H16">
-        <v>1.007898761581609</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="I16">
-        <v>1.007898761581609</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="J16">
-        <v>0.9611055859492399</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="K16">
-        <v>1.067517242934141</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="L16">
-        <v>0.9611055859492399</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="M16">
-        <v>0.9845021737654245</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="N16">
-        <v>0.9845021737654245</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="O16">
-        <v>0.9978786654939893</v>
+        <v>0.9993781848884403</v>
       </c>
       <c r="P16">
-        <v>1.01217386348833</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="Q16">
-        <v>1.01217386348833</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="R16">
-        <v>1.026009708349783</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="S16">
-        <v>1.026009708349783</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="T16">
-        <v>0.9895871190884443</v>
+        <v>0.9987695995143965</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9917352053653926</v>
+        <v>0.9984809803450996</v>
       </c>
       <c r="D17">
-        <v>0.9312323558947232</v>
+        <v>0.9767254661281187</v>
       </c>
       <c r="E17">
-        <v>1.020801670959478</v>
+        <v>1.004615044296095</v>
       </c>
       <c r="F17">
-        <v>1.031745908548341</v>
+        <v>1.01424794905598</v>
       </c>
       <c r="G17">
-        <v>1.031745908548341</v>
+        <v>1.01424794905598</v>
       </c>
       <c r="H17">
-        <v>1.020685602925075</v>
+        <v>1.000781733067722</v>
       </c>
       <c r="I17">
-        <v>1.020685602925075</v>
+        <v>1.000781733067722</v>
       </c>
       <c r="J17">
-        <v>0.9757472300845478</v>
+        <v>0.992156065828924</v>
       </c>
       <c r="K17">
-        <v>1.031745908548341</v>
+        <v>1.01424794905598</v>
       </c>
       <c r="L17">
-        <v>0.9757472300845478</v>
+        <v>0.992156065828924</v>
       </c>
       <c r="M17">
-        <v>0.9982164165048113</v>
+        <v>0.9964688994483231</v>
       </c>
       <c r="N17">
-        <v>0.9982164165048113</v>
+        <v>0.9964688994483231</v>
       </c>
       <c r="O17">
-        <v>1.005744834656367</v>
+        <v>0.9991842810642472</v>
       </c>
       <c r="P17">
-        <v>1.009392913852655</v>
+        <v>1.002395249317542</v>
       </c>
       <c r="Q17">
-        <v>1.009392913852655</v>
+        <v>1.002395249317542</v>
       </c>
       <c r="R17">
-        <v>1.014981162526576</v>
+        <v>1.005358424252152</v>
       </c>
       <c r="S17">
-        <v>1.014981162526576</v>
+        <v>1.005358424252152</v>
       </c>
       <c r="T17">
-        <v>0.9953246622962597</v>
+        <v>0.99783453978699</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9919991496634896</v>
+        <v>0.9976958765149293</v>
       </c>
       <c r="D18">
-        <v>1.02344921829446</v>
+        <v>0.9665915891568944</v>
       </c>
       <c r="E18">
-        <v>1.012845847892839</v>
+        <v>1.006790186687415</v>
       </c>
       <c r="F18">
-        <v>0.9615059119622862</v>
+        <v>1.02036364384464</v>
       </c>
       <c r="G18">
-        <v>0.9615059119622862</v>
+        <v>1.02036364384464</v>
       </c>
       <c r="H18">
-        <v>1.045207748605022</v>
+        <v>1.001416785941297</v>
       </c>
       <c r="I18">
-        <v>1.045207748605022</v>
+        <v>1.001416785941297</v>
       </c>
       <c r="J18">
-        <v>1.004742183351274</v>
+        <v>0.9887093002183475</v>
       </c>
       <c r="K18">
-        <v>0.9615059119622862</v>
+        <v>1.02036364384464</v>
       </c>
       <c r="L18">
-        <v>1.004742183351274</v>
+        <v>0.9887093002183475</v>
       </c>
       <c r="M18">
-        <v>1.024974965978148</v>
+        <v>0.9950630430798222</v>
       </c>
       <c r="N18">
-        <v>1.024974965978148</v>
+        <v>0.9950630430798222</v>
       </c>
       <c r="O18">
-        <v>1.020931926616378</v>
+        <v>0.9989720909490197</v>
       </c>
       <c r="P18">
-        <v>1.003818614639528</v>
+        <v>1.003496576668095</v>
       </c>
       <c r="Q18">
-        <v>1.003818614639528</v>
+        <v>1.003496576668095</v>
       </c>
       <c r="R18">
-        <v>0.9932404389702172</v>
+        <v>1.007713343462231</v>
       </c>
       <c r="S18">
-        <v>0.9932404389702172</v>
+        <v>1.007713343462231</v>
       </c>
       <c r="T18">
-        <v>1.006625009961562</v>
+        <v>0.9969278970605872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9905754699802765</v>
+        <v>0.9999508641556855</v>
       </c>
       <c r="D19">
-        <v>1.040944046825794</v>
+        <v>1.000265861068155</v>
       </c>
       <c r="E19">
-        <v>1.013769105285833</v>
+        <v>1.000052604629472</v>
       </c>
       <c r="F19">
-        <v>0.9454213127984917</v>
+        <v>0.9997256930910289</v>
       </c>
       <c r="G19">
-        <v>0.9454213127984917</v>
+        <v>0.9997256930910289</v>
       </c>
       <c r="H19">
-        <v>1.057136258940385</v>
+        <v>1.00032785616558</v>
       </c>
       <c r="I19">
-        <v>1.057136258940385</v>
+        <v>1.00032785616558</v>
       </c>
       <c r="J19">
-        <v>1.009424154582177</v>
+        <v>1.0000482834371</v>
       </c>
       <c r="K19">
-        <v>0.9454213127984917</v>
+        <v>0.9997256930910289</v>
       </c>
       <c r="L19">
-        <v>1.009424154582177</v>
+        <v>1.0000482834371</v>
       </c>
       <c r="M19">
-        <v>1.033280206761281</v>
+        <v>1.00018806980134</v>
       </c>
       <c r="N19">
-        <v>1.033280206761281</v>
+        <v>1.00018806980134</v>
       </c>
       <c r="O19">
-        <v>1.026776506269465</v>
+        <v>1.000142914744051</v>
       </c>
       <c r="P19">
-        <v>1.003993908773684</v>
+        <v>1.000033944231236</v>
       </c>
       <c r="Q19">
-        <v>1.003993908773684</v>
+        <v>1.000033944231236</v>
       </c>
       <c r="R19">
-        <v>0.9893507597798863</v>
+        <v>0.9999568814461843</v>
       </c>
       <c r="S19">
-        <v>0.9893507597798863</v>
+        <v>0.9999568814461843</v>
       </c>
       <c r="T19">
-        <v>1.009545058068826</v>
+        <v>1.000061860424504</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.999936542137644</v>
+        <v>0.9999548459083727</v>
       </c>
       <c r="D20">
-        <v>1.001484240236526</v>
+        <v>1.000635003917454</v>
       </c>
       <c r="E20">
-        <v>1.000071926568565</v>
+        <v>0.9999645050297844</v>
       </c>
       <c r="F20">
-        <v>0.9983992234231776</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="G20">
-        <v>0.9983992234231776</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="H20">
-        <v>1.000640812260579</v>
+        <v>1.000447202243416</v>
       </c>
       <c r="I20">
-        <v>1.000640812260579</v>
+        <v>1.000447202243416</v>
       </c>
       <c r="J20">
-        <v>1.000572255497957</v>
+        <v>1.000099052588053</v>
       </c>
       <c r="K20">
-        <v>0.9983992234231776</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="L20">
-        <v>1.000572255497957</v>
+        <v>1.000099052588053</v>
       </c>
       <c r="M20">
-        <v>1.000606533879268</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="N20">
-        <v>1.000606533879268</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="O20">
-        <v>1.000428331442367</v>
+        <v>1.000170253287085</v>
       </c>
       <c r="P20">
-        <v>0.999870763727238</v>
+        <v>1.000060740555774</v>
       </c>
       <c r="Q20">
-        <v>0.999870763727238</v>
+        <v>1.000060740555774</v>
       </c>
       <c r="R20">
-        <v>0.999502878651223</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="S20">
-        <v>0.999502878651223</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="T20">
-        <v>1.000184166687408</v>
+        <v>1.000122762753822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999919311780319</v>
+        <v>0.9999874852715748</v>
       </c>
       <c r="D21">
-        <v>0.9983497907190984</v>
+        <v>1.000417126450857</v>
       </c>
       <c r="E21">
-        <v>1.000047358002037</v>
+        <v>0.9998723771757533</v>
       </c>
       <c r="F21">
-        <v>1.001644908188164</v>
+        <v>1.000065026367057</v>
       </c>
       <c r="G21">
-        <v>1.001644908188164</v>
+        <v>1.000065026367057</v>
       </c>
       <c r="H21">
-        <v>0.9996655245847991</v>
+        <v>1.000277662116666</v>
       </c>
       <c r="I21">
-        <v>0.9996655245847991</v>
+        <v>1.000277662116666</v>
       </c>
       <c r="J21">
-        <v>0.9993158025385912</v>
+        <v>0.999974651896293</v>
       </c>
       <c r="K21">
-        <v>1.001644908188164</v>
+        <v>1.000065026367057</v>
       </c>
       <c r="L21">
-        <v>0.9993158025385912</v>
+        <v>0.999974651896293</v>
       </c>
       <c r="M21">
-        <v>0.9994906635616951</v>
+        <v>1.000126157006479</v>
       </c>
       <c r="N21">
-        <v>0.9994906635616951</v>
+        <v>1.000126157006479</v>
       </c>
       <c r="O21">
-        <v>0.9996762283751425</v>
+        <v>1.000041563729571</v>
       </c>
       <c r="P21">
-        <v>1.000208745103851</v>
+        <v>1.000105780126672</v>
       </c>
       <c r="Q21">
-        <v>1.000208745103851</v>
+        <v>1.000105780126672</v>
       </c>
       <c r="R21">
-        <v>1.000567785874929</v>
+        <v>1.000095591686768</v>
       </c>
       <c r="S21">
-        <v>1.000567785874929</v>
+        <v>1.000095591686768</v>
       </c>
       <c r="T21">
-        <v>0.9998358858684536</v>
+        <v>1.0000990548797</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997317362045347</v>
+        <v>0.9999120541462314</v>
       </c>
       <c r="D22">
-        <v>1.001653109060683</v>
+        <v>1.001500274289551</v>
       </c>
       <c r="E22">
-        <v>1.000543946269374</v>
+        <v>0.9998155960505235</v>
       </c>
       <c r="F22">
-        <v>0.9972822023010329</v>
+        <v>0.9994270165359904</v>
       </c>
       <c r="G22">
-        <v>0.9972822023010329</v>
+        <v>0.9994270165359904</v>
       </c>
       <c r="H22">
-        <v>1.001447096620321</v>
+        <v>1.001016739602364</v>
       </c>
       <c r="I22">
-        <v>1.001447096620321</v>
+        <v>1.001016739602364</v>
       </c>
       <c r="J22">
-        <v>1.000795553994934</v>
+        <v>1.000152710179862</v>
       </c>
       <c r="K22">
-        <v>0.9972822023010329</v>
+        <v>0.9994270165359904</v>
       </c>
       <c r="L22">
-        <v>1.000795553994934</v>
+        <v>1.000152710179862</v>
       </c>
       <c r="M22">
-        <v>1.001121325307627</v>
+        <v>1.000584724891113</v>
       </c>
       <c r="N22">
-        <v>1.001121325307627</v>
+        <v>1.000584724891113</v>
       </c>
       <c r="O22">
-        <v>1.000928865628209</v>
+        <v>1.000328348610916</v>
       </c>
       <c r="P22">
-        <v>0.9998416176387624</v>
+        <v>1.000198822106072</v>
       </c>
       <c r="Q22">
-        <v>0.9998416176387624</v>
+        <v>1.000198822106072</v>
       </c>
       <c r="R22">
-        <v>0.9992017638043301</v>
+        <v>1.000005870713552</v>
       </c>
       <c r="S22">
-        <v>0.9992017638043301</v>
+        <v>1.000005870713552</v>
       </c>
       <c r="T22">
-        <v>1.000242274075146</v>
+        <v>1.000304065134087</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000010299894898</v>
+      </c>
+      <c r="D23">
+        <v>1.001218152282969</v>
+      </c>
+      <c r="E23">
+        <v>0.9994022125434108</v>
+      </c>
+      <c r="F23">
+        <v>1.000829849356118</v>
+      </c>
+      <c r="G23">
+        <v>1.000829849356118</v>
+      </c>
+      <c r="H23">
+        <v>1.000677738209495</v>
+      </c>
+      <c r="I23">
+        <v>1.000677738209495</v>
+      </c>
+      <c r="J23">
+        <v>0.9997432219009663</v>
+      </c>
+      <c r="K23">
+        <v>1.000829849356118</v>
+      </c>
+      <c r="L23">
+        <v>0.9997432219009663</v>
+      </c>
+      <c r="M23">
+        <v>1.000210480055231</v>
+      </c>
+      <c r="N23">
+        <v>1.000210480055231</v>
+      </c>
+      <c r="O23">
+        <v>0.9999410575512907</v>
+      </c>
+      <c r="P23">
+        <v>1.00041693648886</v>
+      </c>
+      <c r="Q23">
+        <v>1.00041693648886</v>
+      </c>
+      <c r="R23">
+        <v>1.000520164705675</v>
+      </c>
+      <c r="S23">
+        <v>1.000520164705675</v>
+      </c>
+      <c r="T23">
+        <v>1.00031357903131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9984295357935122</v>
+      </c>
+      <c r="D24">
+        <v>0.8139450249381859</v>
+      </c>
+      <c r="E24">
+        <v>1.025935258346493</v>
+      </c>
+      <c r="F24">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="G24">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="H24">
+        <v>0.9494678571038061</v>
+      </c>
+      <c r="I24">
+        <v>0.9494678571038061</v>
+      </c>
+      <c r="J24">
+        <v>0.9527156541130148</v>
+      </c>
+      <c r="K24">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="L24">
+        <v>0.9527156541130148</v>
+      </c>
+      <c r="M24">
+        <v>0.9510917556084104</v>
+      </c>
+      <c r="N24">
+        <v>0.9510917556084104</v>
+      </c>
+      <c r="O24">
+        <v>0.9760395898544378</v>
+      </c>
+      <c r="P24">
+        <v>1.003748901398001</v>
+      </c>
+      <c r="Q24">
+        <v>1.003748901398001</v>
+      </c>
+      <c r="R24">
+        <v>1.030077474292796</v>
+      </c>
+      <c r="S24">
+        <v>1.030077474292796</v>
+      </c>
+      <c r="T24">
+        <v>0.9749260872120321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9901037861370713</v>
+      </c>
+      <c r="D25">
+        <v>1.059424617727472</v>
+      </c>
+      <c r="E25">
+        <v>1.006722688232293</v>
+      </c>
+      <c r="F25">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="G25">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="H25">
+        <v>1.073124679556563</v>
+      </c>
+      <c r="I25">
+        <v>1.073124679556563</v>
+      </c>
+      <c r="J25">
+        <v>1.005072393960247</v>
+      </c>
+      <c r="K25">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="L25">
+        <v>1.005072393960247</v>
+      </c>
+      <c r="M25">
+        <v>1.039098536758405</v>
+      </c>
+      <c r="N25">
+        <v>1.039098536758405</v>
+      </c>
+      <c r="O25">
+        <v>1.028306587249701</v>
+      </c>
+      <c r="P25">
+        <v>1.010709527726538</v>
+      </c>
+      <c r="Q25">
+        <v>1.010709527726538</v>
+      </c>
+      <c r="R25">
+        <v>0.996515023210605</v>
+      </c>
+      <c r="S25">
+        <v>0.996515023210605</v>
+      </c>
+      <c r="T25">
+        <v>1.014729945879409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9572249217576906</v>
+      </c>
+      <c r="D26">
+        <v>1.044483302036352</v>
+      </c>
+      <c r="E26">
+        <v>1.072292437149501</v>
+      </c>
+      <c r="F26">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="G26">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="H26">
+        <v>1.225090019647668</v>
+      </c>
+      <c r="I26">
+        <v>1.225090019647668</v>
+      </c>
+      <c r="J26">
+        <v>0.9932718048500814</v>
+      </c>
+      <c r="K26">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="L26">
+        <v>0.9932718048500814</v>
+      </c>
+      <c r="M26">
+        <v>1.109180912248874</v>
+      </c>
+      <c r="N26">
+        <v>1.109180912248874</v>
+      </c>
+      <c r="O26">
+        <v>1.096884753882417</v>
+      </c>
+      <c r="P26">
+        <v>1.029134662411905</v>
+      </c>
+      <c r="Q26">
+        <v>1.029134662411905</v>
+      </c>
+      <c r="R26">
+        <v>0.9891115374934196</v>
+      </c>
+      <c r="S26">
+        <v>0.9891115374934196</v>
+      </c>
+      <c r="T26">
+        <v>1.026900774696543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9974445398336368</v>
+      </c>
+      <c r="D27">
+        <v>0.9191395838574714</v>
+      </c>
+      <c r="E27">
+        <v>1.021504866922262</v>
+      </c>
+      <c r="F27">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="G27">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="H27">
+        <v>0.9747000332258716</v>
+      </c>
+      <c r="I27">
+        <v>0.9747000332258716</v>
+      </c>
+      <c r="J27">
+        <v>0.9887038079113074</v>
+      </c>
+      <c r="K27">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="L27">
+        <v>0.9887038079113074</v>
+      </c>
+      <c r="M27">
+        <v>0.9817019205685895</v>
+      </c>
+      <c r="N27">
+        <v>0.9817019205685895</v>
+      </c>
+      <c r="O27">
+        <v>0.9949695693531471</v>
+      </c>
+      <c r="P27">
+        <v>0.9940951290637274</v>
+      </c>
+      <c r="Q27">
+        <v>0.9940951290637274</v>
+      </c>
+      <c r="R27">
+        <v>1.000291733311296</v>
+      </c>
+      <c r="S27">
+        <v>1.000291733311296</v>
+      </c>
+      <c r="T27">
+        <v>0.9867290629674255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9916903555962717</v>
+      </c>
+      <c r="D28">
+        <v>0.8846791195182852</v>
+      </c>
+      <c r="E28">
+        <v>1.024631648951119</v>
+      </c>
+      <c r="F28">
+        <v>1.067517242934141</v>
+      </c>
+      <c r="G28">
+        <v>1.067517242934141</v>
+      </c>
+      <c r="H28">
+        <v>1.007898761581609</v>
+      </c>
+      <c r="I28">
+        <v>1.007898761581609</v>
+      </c>
+      <c r="J28">
+        <v>0.9611055859492399</v>
+      </c>
+      <c r="K28">
+        <v>1.067517242934141</v>
+      </c>
+      <c r="L28">
+        <v>0.9611055859492399</v>
+      </c>
+      <c r="M28">
+        <v>0.9845021737654245</v>
+      </c>
+      <c r="N28">
+        <v>0.9845021737654245</v>
+      </c>
+      <c r="O28">
+        <v>0.9978786654939893</v>
+      </c>
+      <c r="P28">
+        <v>1.01217386348833</v>
+      </c>
+      <c r="Q28">
+        <v>1.01217386348833</v>
+      </c>
+      <c r="R28">
+        <v>1.026009708349783</v>
+      </c>
+      <c r="S28">
+        <v>1.026009708349783</v>
+      </c>
+      <c r="T28">
+        <v>0.9895871190884443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9917352053653926</v>
+      </c>
+      <c r="D29">
+        <v>0.9312323558947232</v>
+      </c>
+      <c r="E29">
+        <v>1.020801670959478</v>
+      </c>
+      <c r="F29">
+        <v>1.031745908548341</v>
+      </c>
+      <c r="G29">
+        <v>1.031745908548341</v>
+      </c>
+      <c r="H29">
+        <v>1.020685602925075</v>
+      </c>
+      <c r="I29">
+        <v>1.020685602925075</v>
+      </c>
+      <c r="J29">
+        <v>0.9757472300845478</v>
+      </c>
+      <c r="K29">
+        <v>1.031745908548341</v>
+      </c>
+      <c r="L29">
+        <v>0.9757472300845478</v>
+      </c>
+      <c r="M29">
+        <v>0.9982164165048113</v>
+      </c>
+      <c r="N29">
+        <v>0.9982164165048113</v>
+      </c>
+      <c r="O29">
+        <v>1.005744834656367</v>
+      </c>
+      <c r="P29">
+        <v>1.009392913852655</v>
+      </c>
+      <c r="Q29">
+        <v>1.009392913852655</v>
+      </c>
+      <c r="R29">
+        <v>1.014981162526576</v>
+      </c>
+      <c r="S29">
+        <v>1.014981162526576</v>
+      </c>
+      <c r="T29">
+        <v>0.9953246622962597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9919991496634896</v>
+      </c>
+      <c r="D30">
+        <v>1.02344921829446</v>
+      </c>
+      <c r="E30">
+        <v>1.012845847892839</v>
+      </c>
+      <c r="F30">
+        <v>0.9615059119622862</v>
+      </c>
+      <c r="G30">
+        <v>0.9615059119622862</v>
+      </c>
+      <c r="H30">
+        <v>1.045207748605022</v>
+      </c>
+      <c r="I30">
+        <v>1.045207748605022</v>
+      </c>
+      <c r="J30">
+        <v>1.004742183351274</v>
+      </c>
+      <c r="K30">
+        <v>0.9615059119622862</v>
+      </c>
+      <c r="L30">
+        <v>1.004742183351274</v>
+      </c>
+      <c r="M30">
+        <v>1.024974965978148</v>
+      </c>
+      <c r="N30">
+        <v>1.024974965978148</v>
+      </c>
+      <c r="O30">
+        <v>1.020931926616378</v>
+      </c>
+      <c r="P30">
+        <v>1.003818614639528</v>
+      </c>
+      <c r="Q30">
+        <v>1.003818614639528</v>
+      </c>
+      <c r="R30">
+        <v>0.9932404389702172</v>
+      </c>
+      <c r="S30">
+        <v>0.9932404389702172</v>
+      </c>
+      <c r="T30">
+        <v>1.006625009961562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9905754699802765</v>
+      </c>
+      <c r="D31">
+        <v>1.040944046825794</v>
+      </c>
+      <c r="E31">
+        <v>1.013769105285833</v>
+      </c>
+      <c r="F31">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="G31">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="H31">
+        <v>1.057136258940385</v>
+      </c>
+      <c r="I31">
+        <v>1.057136258940385</v>
+      </c>
+      <c r="J31">
+        <v>1.009424154582177</v>
+      </c>
+      <c r="K31">
+        <v>0.9454213127984917</v>
+      </c>
+      <c r="L31">
+        <v>1.009424154582177</v>
+      </c>
+      <c r="M31">
+        <v>1.033280206761281</v>
+      </c>
+      <c r="N31">
+        <v>1.033280206761281</v>
+      </c>
+      <c r="O31">
+        <v>1.026776506269465</v>
+      </c>
+      <c r="P31">
+        <v>1.003993908773684</v>
+      </c>
+      <c r="Q31">
+        <v>1.003993908773684</v>
+      </c>
+      <c r="R31">
+        <v>0.9893507597798863</v>
+      </c>
+      <c r="S31">
+        <v>0.9893507597798863</v>
+      </c>
+      <c r="T31">
+        <v>1.009545058068826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9939302027397258</v>
+      </c>
+      <c r="D32">
+        <v>0.835936692191781</v>
+      </c>
+      <c r="E32">
+        <v>1.023188416712329</v>
+      </c>
+      <c r="F32">
+        <v>1.115284122191781</v>
+      </c>
+      <c r="G32">
+        <v>1.115284122191781</v>
+      </c>
+      <c r="H32">
+        <v>0.9845380198630135</v>
+      </c>
+      <c r="I32">
+        <v>0.9845380198630135</v>
+      </c>
+      <c r="J32">
+        <v>0.9448693708219186</v>
+      </c>
+      <c r="K32">
+        <v>1.115284122191781</v>
+      </c>
+      <c r="L32">
+        <v>0.9448693708219186</v>
+      </c>
+      <c r="M32">
+        <v>0.964703695342466</v>
+      </c>
+      <c r="N32">
+        <v>0.964703695342466</v>
+      </c>
+      <c r="O32">
+        <v>0.9841986024657535</v>
+      </c>
+      <c r="P32">
+        <v>1.014897170958904</v>
+      </c>
+      <c r="Q32">
+        <v>1.014897170958904</v>
+      </c>
+      <c r="R32">
+        <v>1.039993908767123</v>
+      </c>
+      <c r="S32">
+        <v>1.039993908767123</v>
+      </c>
+      <c r="T32">
+        <v>0.9829578040867583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.03257998368421</v>
+      </c>
+      <c r="D33">
+        <v>1.413737636842106</v>
+      </c>
+      <c r="E33">
+        <v>0.8793742347368422</v>
+      </c>
+      <c r="F33">
+        <v>0.8649946905263158</v>
+      </c>
+      <c r="G33">
+        <v>0.8649946905263158</v>
+      </c>
+      <c r="H33">
+        <v>0.9757657942105262</v>
+      </c>
+      <c r="I33">
+        <v>0.9757657942105262</v>
+      </c>
+      <c r="J33">
+        <v>1.103632683684211</v>
+      </c>
+      <c r="K33">
+        <v>0.8649946905263158</v>
+      </c>
+      <c r="L33">
+        <v>1.103632683684211</v>
+      </c>
+      <c r="M33">
+        <v>1.039699238947368</v>
+      </c>
+      <c r="N33">
+        <v>1.039699238947368</v>
+      </c>
+      <c r="O33">
+        <v>0.9862575708771929</v>
+      </c>
+      <c r="P33">
+        <v>0.9814643894736842</v>
+      </c>
+      <c r="Q33">
+        <v>0.9814643894736843</v>
+      </c>
+      <c r="R33">
+        <v>0.9523469647368422</v>
+      </c>
+      <c r="S33">
+        <v>0.9523469647368422</v>
+      </c>
+      <c r="T33">
+        <v>1.045014170614035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.097159763157895</v>
+      </c>
+      <c r="D34">
+        <v>1.171185072631579</v>
+      </c>
+      <c r="E34">
+        <v>0.7863100678947369</v>
+      </c>
+      <c r="F34">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="G34">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="H34">
+        <v>0.6027306700000001</v>
+      </c>
+      <c r="I34">
+        <v>0.6027306700000001</v>
+      </c>
+      <c r="J34">
+        <v>1.061160580526316</v>
+      </c>
+      <c r="K34">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="L34">
+        <v>1.061160580526316</v>
+      </c>
+      <c r="M34">
+        <v>0.8319456252631579</v>
+      </c>
+      <c r="N34">
+        <v>0.8319456252631579</v>
+      </c>
+      <c r="O34">
+        <v>0.8167337728070175</v>
+      </c>
+      <c r="P34">
+        <v>0.9501949987719298</v>
+      </c>
+      <c r="Q34">
+        <v>0.9501949987719298</v>
+      </c>
+      <c r="R34">
+        <v>1.009319685526316</v>
+      </c>
+      <c r="S34">
+        <v>1.009319685526316</v>
+      </c>
+      <c r="T34">
+        <v>0.98420665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9626112331731885</v>
+      </c>
+      <c r="D35">
+        <v>1.161893820257392</v>
+      </c>
+      <c r="E35">
+        <v>1.054089353350655</v>
+      </c>
+      <c r="F35">
+        <v>0.7845023629655168</v>
+      </c>
+      <c r="G35">
+        <v>0.7845023629655168</v>
+      </c>
+      <c r="H35">
+        <v>1.227849576852642</v>
+      </c>
+      <c r="I35">
+        <v>1.227849576852642</v>
+      </c>
+      <c r="J35">
+        <v>1.037690060914468</v>
+      </c>
+      <c r="K35">
+        <v>0.7845023629655168</v>
+      </c>
+      <c r="L35">
+        <v>1.037690060914468</v>
+      </c>
+      <c r="M35">
+        <v>1.132769818883555</v>
+      </c>
+      <c r="N35">
+        <v>1.132769818883555</v>
+      </c>
+      <c r="O35">
+        <v>1.106542997039255</v>
+      </c>
+      <c r="P35">
+        <v>1.016680666910876</v>
+      </c>
+      <c r="Q35">
+        <v>1.016680666910876</v>
+      </c>
+      <c r="R35">
+        <v>0.9586360909245359</v>
+      </c>
+      <c r="S35">
+        <v>0.9586360909245359</v>
+      </c>
+      <c r="T35">
+        <v>1.038106067918977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.999936542137644</v>
+      </c>
+      <c r="D36">
+        <v>1.001484240236526</v>
+      </c>
+      <c r="E36">
+        <v>1.000071926568565</v>
+      </c>
+      <c r="F36">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="G36">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="H36">
+        <v>1.000640812260579</v>
+      </c>
+      <c r="I36">
+        <v>1.000640812260579</v>
+      </c>
+      <c r="J36">
+        <v>1.000572255497957</v>
+      </c>
+      <c r="K36">
+        <v>0.9983992234231776</v>
+      </c>
+      <c r="L36">
+        <v>1.000572255497957</v>
+      </c>
+      <c r="M36">
+        <v>1.000606533879268</v>
+      </c>
+      <c r="N36">
+        <v>1.000606533879268</v>
+      </c>
+      <c r="O36">
+        <v>1.000428331442367</v>
+      </c>
+      <c r="P36">
+        <v>0.999870763727238</v>
+      </c>
+      <c r="Q36">
+        <v>0.999870763727238</v>
+      </c>
+      <c r="R36">
+        <v>0.999502878651223</v>
+      </c>
+      <c r="S36">
+        <v>0.999502878651223</v>
+      </c>
+      <c r="T36">
+        <v>1.000184166687408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999919311780319</v>
+      </c>
+      <c r="D37">
+        <v>0.9983497907190984</v>
+      </c>
+      <c r="E37">
+        <v>1.000047358002037</v>
+      </c>
+      <c r="F37">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="G37">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="H37">
+        <v>0.9996655245847991</v>
+      </c>
+      <c r="I37">
+        <v>0.9996655245847991</v>
+      </c>
+      <c r="J37">
+        <v>0.9993158025385912</v>
+      </c>
+      <c r="K37">
+        <v>1.001644908188164</v>
+      </c>
+      <c r="L37">
+        <v>0.9993158025385912</v>
+      </c>
+      <c r="M37">
+        <v>0.9994906635616951</v>
+      </c>
+      <c r="N37">
+        <v>0.9994906635616951</v>
+      </c>
+      <c r="O37">
+        <v>0.9996762283751425</v>
+      </c>
+      <c r="P37">
+        <v>1.000208745103851</v>
+      </c>
+      <c r="Q37">
+        <v>1.000208745103851</v>
+      </c>
+      <c r="R37">
+        <v>1.000567785874929</v>
+      </c>
+      <c r="S37">
+        <v>1.000567785874929</v>
+      </c>
+      <c r="T37">
+        <v>0.9998358858684536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997317362045347</v>
+      </c>
+      <c r="D38">
+        <v>1.001653109060683</v>
+      </c>
+      <c r="E38">
+        <v>1.000543946269374</v>
+      </c>
+      <c r="F38">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="G38">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="H38">
+        <v>1.001447096620321</v>
+      </c>
+      <c r="I38">
+        <v>1.001447096620321</v>
+      </c>
+      <c r="J38">
+        <v>1.000795553994934</v>
+      </c>
+      <c r="K38">
+        <v>0.9972822023010329</v>
+      </c>
+      <c r="L38">
+        <v>1.000795553994934</v>
+      </c>
+      <c r="M38">
+        <v>1.001121325307627</v>
+      </c>
+      <c r="N38">
+        <v>1.001121325307627</v>
+      </c>
+      <c r="O38">
+        <v>1.000928865628209</v>
+      </c>
+      <c r="P38">
+        <v>0.9998416176387624</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998416176387624</v>
+      </c>
+      <c r="R38">
+        <v>0.9992017638043301</v>
+      </c>
+      <c r="S38">
+        <v>0.9992017638043301</v>
+      </c>
+      <c r="T38">
+        <v>1.000242274075146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9993609335869809</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.007527058861167</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001545656278879</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9887443817820742</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9887443817820742</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.004376702498299</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.004376702498299</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.003733753017434</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9887443817820742</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.003733753017434</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.004055227757867</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.004055227757867</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.003218703931537</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9989516124326027</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9989516124326027</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9963998047699705</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9963998047699705</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000881414337472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.03260161036861</v>
+      </c>
+      <c r="D40">
+        <v>1.125116835047708</v>
+      </c>
+      <c r="E40">
+        <v>0.922814417813317</v>
+      </c>
+      <c r="F40">
+        <v>1.012866372455033</v>
+      </c>
+      <c r="G40">
+        <v>1.012866372455033</v>
+      </c>
+      <c r="H40">
+        <v>0.8803818038341966</v>
+      </c>
+      <c r="I40">
+        <v>0.8803818038341966</v>
+      </c>
+      <c r="J40">
+        <v>1.040852564567619</v>
+      </c>
+      <c r="K40">
+        <v>1.012866372455033</v>
+      </c>
+      <c r="L40">
+        <v>1.040852564567619</v>
+      </c>
+      <c r="M40">
+        <v>0.9606171842009079</v>
+      </c>
+      <c r="N40">
+        <v>0.9606171842009079</v>
+      </c>
+      <c r="O40">
+        <v>0.948016262071711</v>
+      </c>
+      <c r="P40">
+        <v>0.9780335802856163</v>
+      </c>
+      <c r="Q40">
+        <v>0.9780335802856163</v>
+      </c>
+      <c r="R40">
+        <v>0.9867417783279704</v>
+      </c>
+      <c r="S40">
+        <v>0.9867417783279704</v>
+      </c>
+      <c r="T40">
+        <v>1.002438934014414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9979609763630602</v>
+      </c>
+      <c r="D41">
+        <v>0.9666744780464924</v>
+      </c>
+      <c r="E41">
+        <v>1.007832556309505</v>
+      </c>
+      <c r="F41">
+        <v>1.014646589688984</v>
+      </c>
+      <c r="G41">
+        <v>1.014646589688984</v>
+      </c>
+      <c r="H41">
+        <v>1.000762864956342</v>
+      </c>
+      <c r="I41">
+        <v>1.000762864956342</v>
+      </c>
+      <c r="J41">
+        <v>0.9911387294072983</v>
+      </c>
+      <c r="K41">
+        <v>1.014646589688984</v>
+      </c>
+      <c r="L41">
+        <v>0.9911387294072983</v>
+      </c>
+      <c r="M41">
+        <v>0.99595079718182</v>
+      </c>
+      <c r="N41">
+        <v>0.99595079718182</v>
+      </c>
+      <c r="O41">
+        <v>0.999911383557715</v>
+      </c>
+      <c r="P41">
+        <v>1.002182728017541</v>
+      </c>
+      <c r="Q41">
+        <v>1.002182728017541</v>
+      </c>
+      <c r="R41">
+        <v>1.005298693435402</v>
+      </c>
+      <c r="S41">
+        <v>1.005298693435402</v>
+      </c>
+      <c r="T41">
+        <v>0.9965026991286138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002083874395558</v>
+      </c>
+      <c r="D42">
+        <v>1.024970349335238</v>
+      </c>
+      <c r="E42">
+        <v>0.9928595244218182</v>
+      </c>
+      <c r="F42">
+        <v>0.9908826691291389</v>
+      </c>
+      <c r="G42">
+        <v>0.9908826691291389</v>
+      </c>
+      <c r="H42">
+        <v>0.9976722481566136</v>
+      </c>
+      <c r="I42">
+        <v>0.9976722481566136</v>
+      </c>
+      <c r="J42">
+        <v>1.006759691738914</v>
+      </c>
+      <c r="K42">
+        <v>0.9908826691291389</v>
+      </c>
+      <c r="L42">
+        <v>1.006759691738914</v>
+      </c>
+      <c r="M42">
+        <v>1.002215969947764</v>
+      </c>
+      <c r="N42">
+        <v>1.002215969947764</v>
+      </c>
+      <c r="O42">
+        <v>0.9990971547724485</v>
+      </c>
+      <c r="P42">
+        <v>0.9984382030082221</v>
+      </c>
+      <c r="Q42">
+        <v>0.9984382030082221</v>
+      </c>
+      <c r="R42">
+        <v>0.9965493195384513</v>
+      </c>
+      <c r="S42">
+        <v>0.9965493195384513</v>
+      </c>
+      <c r="T42">
+        <v>1.002538059529547</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004079272695481</v>
+        <v>0.9999548459083727</v>
       </c>
       <c r="D3">
-        <v>1.000056111302173</v>
+        <v>1.000635003917454</v>
       </c>
       <c r="E3">
-        <v>0.9978057941295956</v>
+        <v>0.9999645050297844</v>
       </c>
       <c r="F3">
-        <v>1.004079272695481</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="G3">
-        <v>0.9934522184426693</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="H3">
-        <v>1.001243156727804</v>
+        <v>1.000447202243416</v>
       </c>
       <c r="I3">
-        <v>0.9996053884200932</v>
+        <v>1.000447202243416</v>
       </c>
       <c r="J3">
-        <v>1.000056111302173</v>
+        <v>1.000099052588053</v>
       </c>
       <c r="K3">
-        <v>1.004079272695481</v>
+        <v>0.9996359668358527</v>
       </c>
       <c r="L3">
-        <v>0.9978057941295956</v>
+        <v>1.000099052588053</v>
       </c>
       <c r="M3">
-        <v>0.9989309527158843</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="N3">
-        <v>0.9989309527158843</v>
+        <v>1.000273127415735</v>
       </c>
       <c r="O3">
-        <v>0.9997016873865242</v>
+        <v>1.000170253287085</v>
       </c>
       <c r="P3">
-        <v>1.00064705937575</v>
+        <v>1.000060740555774</v>
       </c>
       <c r="Q3">
-        <v>1.00064705937575</v>
+        <v>1.000060740555774</v>
       </c>
       <c r="R3">
-        <v>1.001505112705683</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="S3">
-        <v>1.001505112705683</v>
+        <v>0.9999545471257938</v>
       </c>
       <c r="T3">
-        <v>0.9993736569529693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000122762753822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008044515889283</v>
+        <v>1.03260161036861</v>
       </c>
       <c r="D4">
-        <v>1.000037250976932</v>
+        <v>1.125116835047708</v>
       </c>
       <c r="E4">
-        <v>0.9957074297342631</v>
+        <v>0.922814417813317</v>
       </c>
       <c r="F4">
-        <v>1.008044515889283</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="G4">
-        <v>0.9871908795186997</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="H4">
-        <v>1.002389873954126</v>
+        <v>0.8803818038341966</v>
       </c>
       <c r="I4">
-        <v>0.9992476470130748</v>
+        <v>0.8803818038341966</v>
       </c>
       <c r="J4">
-        <v>1.000037250976932</v>
+        <v>1.040852564567619</v>
       </c>
       <c r="K4">
-        <v>1.008044515889283</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="L4">
-        <v>0.9957074297342631</v>
+        <v>1.040852564567619</v>
       </c>
       <c r="M4">
-        <v>0.9978723403555974</v>
+        <v>0.9606171842009079</v>
       </c>
       <c r="N4">
-        <v>0.9978723403555974</v>
+        <v>0.9606171842009079</v>
       </c>
       <c r="O4">
-        <v>0.9993781848884403</v>
+        <v>0.948016262071711</v>
       </c>
       <c r="P4">
-        <v>1.001263065533493</v>
+        <v>0.9780335802856163</v>
       </c>
       <c r="Q4">
-        <v>1.001263065533493</v>
+        <v>0.9780335802856163</v>
       </c>
       <c r="R4">
-        <v>1.00295842812244</v>
+        <v>0.9867417783279704</v>
       </c>
       <c r="S4">
-        <v>1.00295842812244</v>
+        <v>0.9867417783279704</v>
       </c>
       <c r="T4">
-        <v>0.9987695995143966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.002438934014414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01424794905598</v>
+        <v>0.9917139972190193</v>
       </c>
       <c r="D5">
-        <v>1.000781733067722</v>
+        <v>1.029037140922189</v>
       </c>
       <c r="E5">
-        <v>0.992156065828924</v>
+        <v>1.012671839632563</v>
       </c>
       <c r="F5">
-        <v>1.01424794905598</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="G5">
-        <v>0.9767254661281186</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="H5">
-        <v>1.004615044296095</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="I5">
-        <v>0.9984809803450996</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="J5">
-        <v>1.000781733067722</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="K5">
-        <v>1.01424794905598</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="L5">
-        <v>0.992156065828924</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="M5">
-        <v>0.9964688994483231</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="N5">
-        <v>0.9964688994483231</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="O5">
-        <v>0.9991842810642471</v>
+        <v>1.022444486356868</v>
       </c>
       <c r="P5">
-        <v>1.002395249317542</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="Q5">
-        <v>1.002395249317542</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="R5">
-        <v>1.005358424252152</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="S5">
-        <v>1.005358424252152</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="T5">
-        <v>0.99783453978699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.007551510875359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.02036364384464</v>
+        <v>0.9626112331731885</v>
       </c>
       <c r="D6">
-        <v>1.001416785941297</v>
+        <v>1.161893820257392</v>
       </c>
       <c r="E6">
-        <v>0.9887093002183475</v>
+        <v>1.054089353350655</v>
       </c>
       <c r="F6">
-        <v>1.02036364384464</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="G6">
-        <v>0.9665915891568944</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="H6">
-        <v>1.006790186687415</v>
+        <v>1.227849576852642</v>
       </c>
       <c r="I6">
-        <v>0.9976958765149293</v>
+        <v>1.227849576852642</v>
       </c>
       <c r="J6">
-        <v>1.001416785941297</v>
+        <v>1.037690060914468</v>
       </c>
       <c r="K6">
-        <v>1.02036364384464</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="L6">
-        <v>0.9887093002183475</v>
+        <v>1.037690060914468</v>
       </c>
       <c r="M6">
-        <v>0.9950630430798222</v>
+        <v>1.132769818883555</v>
       </c>
       <c r="N6">
-        <v>0.9950630430798222</v>
+        <v>1.132769818883555</v>
       </c>
       <c r="O6">
-        <v>0.9989720909490197</v>
+        <v>1.106542997039255</v>
       </c>
       <c r="P6">
-        <v>1.003496576668095</v>
+        <v>1.016680666910876</v>
       </c>
       <c r="Q6">
-        <v>1.003496576668095</v>
+        <v>1.016680666910876</v>
       </c>
       <c r="R6">
-        <v>1.007713343462231</v>
+        <v>0.9586360909245359</v>
       </c>
       <c r="S6">
-        <v>1.007713343462231</v>
+        <v>0.9586360909245359</v>
       </c>
       <c r="T6">
-        <v>0.9969278970605872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.038106067918977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997256930910285</v>
+        <v>1.000049772319088</v>
       </c>
       <c r="D7">
-        <v>1.00032785616558</v>
+        <v>0.9929438179920967</v>
       </c>
       <c r="E7">
-        <v>1.0000482834371</v>
+        <v>1.00038129114111</v>
       </c>
       <c r="F7">
-        <v>0.9997256930910285</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="G7">
-        <v>1.000265861068155</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="H7">
-        <v>1.000052604629472</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="I7">
-        <v>0.9999508641556857</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="J7">
-        <v>1.00032785616558</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="K7">
-        <v>0.9997256930910285</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="L7">
-        <v>1.0000482834371</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="M7">
-        <v>1.00018806980134</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="N7">
-        <v>1.00018806980134</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="O7">
-        <v>1.000142914744051</v>
+        <v>0.998667149514584</v>
       </c>
       <c r="P7">
-        <v>1.000033944231236</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="Q7">
-        <v>1.000033944231236</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="R7">
-        <v>0.9999568814461841</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="S7">
-        <v>0.9999568814461841</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="T7">
-        <v>1.000061860424504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9991479552890495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996359668358535</v>
+        <v>0.9999919311780319</v>
       </c>
       <c r="D8">
-        <v>1.000447202243415</v>
+        <v>0.9983497907190984</v>
       </c>
       <c r="E8">
-        <v>1.000099052588053</v>
+        <v>1.000047358002037</v>
       </c>
       <c r="F8">
-        <v>0.9996359668358535</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="G8">
-        <v>1.000635003917455</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="H8">
-        <v>0.999964505029785</v>
+        <v>0.9996655245847991</v>
       </c>
       <c r="I8">
-        <v>0.9999548459083727</v>
+        <v>0.9996655245847991</v>
       </c>
       <c r="J8">
-        <v>1.000447202243415</v>
+        <v>0.9993158025385912</v>
       </c>
       <c r="K8">
-        <v>0.9996359668358535</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="L8">
-        <v>1.000099052588053</v>
+        <v>0.9993158025385912</v>
       </c>
       <c r="M8">
-        <v>1.000273127415734</v>
+        <v>0.9994906635616951</v>
       </c>
       <c r="N8">
-        <v>1.000273127415734</v>
+        <v>0.9994906635616951</v>
       </c>
       <c r="O8">
-        <v>1.000170253287085</v>
+        <v>0.9996762283751425</v>
       </c>
       <c r="P8">
-        <v>1.000060740555774</v>
+        <v>1.000208745103851</v>
       </c>
       <c r="Q8">
-        <v>1.000060740555774</v>
+        <v>1.000208745103851</v>
       </c>
       <c r="R8">
-        <v>0.999954547125794</v>
+        <v>1.000567785874929</v>
       </c>
       <c r="S8">
-        <v>0.999954547125794</v>
+        <v>1.000567785874929</v>
       </c>
       <c r="T8">
-        <v>1.000122762753822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9998358858684536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000065026367057</v>
+        <v>0.9992476470130748</v>
       </c>
       <c r="D9">
-        <v>1.000277662116666</v>
+        <v>0.9871908795186997</v>
       </c>
       <c r="E9">
-        <v>0.9999746518962932</v>
+        <v>1.002389873954126</v>
       </c>
       <c r="F9">
-        <v>1.000065026367057</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="G9">
-        <v>1.000417126450857</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="H9">
-        <v>0.9998723771757533</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="I9">
-        <v>0.9999874852715748</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="J9">
-        <v>1.000277662116666</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="K9">
-        <v>1.000065026367057</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="L9">
-        <v>0.9999746518962932</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="M9">
-        <v>1.000126157006479</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="N9">
-        <v>1.000126157006479</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="O9">
-        <v>1.000041563729571</v>
+        <v>0.9993781848884403</v>
       </c>
       <c r="P9">
-        <v>1.000105780126672</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="Q9">
-        <v>1.000105780126672</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="R9">
-        <v>1.000095591686768</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="S9">
-        <v>1.000095591686768</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="T9">
-        <v>1.0000990548797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9987695995143965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9994270165359904</v>
+        <v>0.9617616585398391</v>
       </c>
       <c r="D10">
-        <v>1.001016739602364</v>
+        <v>1.168051110188026</v>
       </c>
       <c r="E10">
-        <v>1.000152710179862</v>
+        <v>1.054955934507786</v>
       </c>
       <c r="F10">
-        <v>0.9994270165359904</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="G10">
-        <v>1.001500274289551</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="H10">
-        <v>0.9998155960505235</v>
+        <v>1.233828756311153</v>
       </c>
       <c r="I10">
-        <v>0.9999120541462314</v>
+        <v>1.233828756311153</v>
       </c>
       <c r="J10">
-        <v>1.001016739602364</v>
+        <v>1.039062512308648</v>
       </c>
       <c r="K10">
-        <v>0.9994270165359904</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="L10">
-        <v>1.000152710179862</v>
+        <v>1.039062512308648</v>
       </c>
       <c r="M10">
-        <v>1.000584724891113</v>
+        <v>1.1364456343099</v>
       </c>
       <c r="N10">
-        <v>1.000584724891113</v>
+        <v>1.1364456343099</v>
       </c>
       <c r="O10">
-        <v>1.000328348610916</v>
+        <v>1.109282401042529</v>
       </c>
       <c r="P10">
-        <v>1.000198822106072</v>
+        <v>1.017076824106633</v>
       </c>
       <c r="Q10">
-        <v>1.000198822106072</v>
+        <v>1.017076824106634</v>
       </c>
       <c r="R10">
-        <v>1.000005870713552</v>
+        <v>0.9573924190050002</v>
       </c>
       <c r="S10">
-        <v>1.000005870713552</v>
+        <v>0.9573924190050002</v>
       </c>
       <c r="T10">
-        <v>1.000304065134087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.039333195925925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000829849356118</v>
+        <v>1.026608836097689</v>
       </c>
       <c r="D11">
-        <v>1.000677738209495</v>
+        <v>1.067211201416898</v>
       </c>
       <c r="E11">
-        <v>0.9997432219009663</v>
+        <v>0.9418946714028472</v>
       </c>
       <c r="F11">
-        <v>1.000829849356118</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="G11">
-        <v>1.001218152282969</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="H11">
-        <v>0.9994022125434108</v>
+        <v>0.8924045175091209</v>
       </c>
       <c r="I11">
-        <v>1.000010299894898</v>
+        <v>0.8924045175091209</v>
       </c>
       <c r="J11">
-        <v>1.000677738209495</v>
+        <v>1.025742553171598</v>
       </c>
       <c r="K11">
-        <v>1.000829849356118</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="L11">
-        <v>0.9997432219009663</v>
+        <v>1.025742553171598</v>
       </c>
       <c r="M11">
-        <v>1.000210480055231</v>
+        <v>0.9590735353403593</v>
       </c>
       <c r="N11">
-        <v>1.000210480055231</v>
+        <v>0.9590735353403593</v>
       </c>
       <c r="O11">
-        <v>0.9999410575512907</v>
+        <v>0.9533472473611887</v>
       </c>
       <c r="P11">
-        <v>1.00041693648886</v>
+        <v>0.9823431960643463</v>
       </c>
       <c r="Q11">
-        <v>1.00041693648886</v>
+        <v>0.9823431960643463</v>
       </c>
       <c r="R11">
-        <v>1.000520164705675</v>
+        <v>0.9939780264263398</v>
       </c>
       <c r="S11">
-        <v>1.000520164705675</v>
+        <v>0.9939780264263398</v>
       </c>
       <c r="T11">
-        <v>1.00031357903131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.997124049518412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.109063192977181</v>
+        <v>0.9894837402526323</v>
       </c>
       <c r="D12">
-        <v>0.9494678571038061</v>
+        <v>1.054092794926317</v>
       </c>
       <c r="E12">
-        <v>0.9527156541130148</v>
+        <v>1.014413725684208</v>
       </c>
       <c r="F12">
-        <v>1.109063192977181</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="G12">
-        <v>0.8139450249381859</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="H12">
-        <v>1.025935258346493</v>
+        <v>1.066189348042102</v>
       </c>
       <c r="I12">
-        <v>0.9984295357935123</v>
+        <v>1.066189348042102</v>
       </c>
       <c r="J12">
-        <v>0.9494678571038061</v>
+        <v>1.012894803705263</v>
       </c>
       <c r="K12">
-        <v>1.109063192977181</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="L12">
-        <v>0.9527156541130148</v>
+        <v>1.012894803705263</v>
       </c>
       <c r="M12">
-        <v>0.9510917556084104</v>
+        <v>1.039542075873682</v>
       </c>
       <c r="N12">
-        <v>0.9510917556084104</v>
+        <v>1.039542075873682</v>
       </c>
       <c r="O12">
-        <v>0.9760395898544378</v>
+        <v>1.031165959143857</v>
       </c>
       <c r="P12">
-        <v>1.003748901398001</v>
+        <v>1.004209196733333</v>
       </c>
       <c r="Q12">
-        <v>1.003748901398001</v>
+        <v>1.004209196733333</v>
       </c>
       <c r="R12">
-        <v>1.030077474292796</v>
+        <v>0.9865427571631582</v>
       </c>
       <c r="S12">
-        <v>1.030077474292796</v>
+        <v>0.9865427571631582</v>
       </c>
       <c r="T12">
-        <v>0.9749260872120321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.011769641843859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9539315096628052</v>
+        <v>1.004543501442338</v>
       </c>
       <c r="D13">
-        <v>1.073124679556563</v>
+        <v>1.007240747742268</v>
       </c>
       <c r="E13">
-        <v>1.005072393960247</v>
+        <v>0.989688363998481</v>
       </c>
       <c r="F13">
-        <v>0.9539315096628052</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="G13">
-        <v>1.059424617727472</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="H13">
-        <v>1.006722688232293</v>
+        <v>0.9811442520065464</v>
       </c>
       <c r="I13">
-        <v>0.9901037861370712</v>
+        <v>0.9811442520065464</v>
       </c>
       <c r="J13">
-        <v>1.073124679556563</v>
+        <v>1.001809631996775</v>
       </c>
       <c r="K13">
-        <v>0.9539315096628052</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="L13">
-        <v>1.005072393960247</v>
+        <v>1.001809631996775</v>
       </c>
       <c r="M13">
-        <v>1.039098536758405</v>
+        <v>0.9914769420016607</v>
       </c>
       <c r="N13">
-        <v>1.039098536758405</v>
+        <v>0.9914769420016607</v>
       </c>
       <c r="O13">
-        <v>1.028306587249701</v>
+        <v>0.9908807493339342</v>
       </c>
       <c r="P13">
-        <v>1.010709527726539</v>
+        <v>0.9980218044943959</v>
       </c>
       <c r="Q13">
-        <v>1.010709527726539</v>
+        <v>0.9980218044943959</v>
       </c>
       <c r="R13">
-        <v>0.9965150232106053</v>
+        <v>1.001294235740763</v>
       </c>
       <c r="S13">
-        <v>0.9965150232106053</v>
+        <v>1.001294235740763</v>
       </c>
       <c r="T13">
-        <v>1.014729945879409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9992563377777125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.869042162737965</v>
+        <v>0.9333824599999991</v>
       </c>
       <c r="D14">
-        <v>1.225090019647667</v>
+        <v>1.299238500000001</v>
       </c>
       <c r="E14">
-        <v>0.9932718048500814</v>
+        <v>1.0949889</v>
       </c>
       <c r="F14">
-        <v>0.869042162737965</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="G14">
-        <v>1.044483302036352</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="H14">
-        <v>1.072292437149501</v>
+        <v>1.409533400000001</v>
       </c>
       <c r="I14">
-        <v>0.9572249217576906</v>
+        <v>1.409533400000001</v>
       </c>
       <c r="J14">
-        <v>1.225090019647667</v>
+        <v>1.0701633</v>
       </c>
       <c r="K14">
-        <v>0.869042162737965</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="L14">
-        <v>0.9932718048500814</v>
+        <v>1.0701633</v>
       </c>
       <c r="M14">
-        <v>1.109180912248874</v>
+        <v>1.23984835</v>
       </c>
       <c r="N14">
-        <v>1.109180912248874</v>
+        <v>1.23984835</v>
       </c>
       <c r="O14">
-        <v>1.096884753882416</v>
+        <v>1.191561866666667</v>
       </c>
       <c r="P14">
-        <v>1.029134662411905</v>
+        <v>1.029649356666667</v>
       </c>
       <c r="Q14">
-        <v>1.029134662411904</v>
+        <v>1.029649356666667</v>
       </c>
       <c r="R14">
-        <v>0.9891115374934196</v>
+        <v>0.9245498600000003</v>
       </c>
       <c r="S14">
-        <v>0.9891115374934196</v>
+        <v>0.9245498600000003</v>
       </c>
       <c r="T14">
-        <v>1.026900774696543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.069426321666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.018881546054003</v>
+        <v>1.1585466</v>
       </c>
       <c r="D15">
-        <v>0.9747000332258718</v>
+        <v>0.66920919</v>
       </c>
       <c r="E15">
-        <v>0.9887038079113074</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F15">
-        <v>1.018881546054003</v>
+        <v>1.9813918</v>
       </c>
       <c r="G15">
-        <v>0.9191395838574714</v>
+        <v>1.9813918</v>
       </c>
       <c r="H15">
-        <v>1.021504866922262</v>
+        <v>0.21885897</v>
       </c>
       <c r="I15">
-        <v>0.9974445398336368</v>
+        <v>0.21885897</v>
       </c>
       <c r="J15">
-        <v>0.9747000332258718</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="K15">
-        <v>1.018881546054003</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9887038079113074</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.9817019205685896</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.9817019205685896</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>0.9949695693531471</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9940951290637274</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.9940951290637274</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>1.000291733311296</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>1.000291733311296</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9867290629674255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9983992234231776</v>
+        <v>1.2279468</v>
       </c>
       <c r="D16">
-        <v>1.000640812260579</v>
+        <v>1.9758331</v>
       </c>
       <c r="E16">
-        <v>1.000572255497957</v>
+        <v>0.43940082</v>
       </c>
       <c r="F16">
-        <v>0.9983992234231776</v>
+        <v>1.0697492</v>
       </c>
       <c r="G16">
-        <v>1.001484240236526</v>
+        <v>1.0697492</v>
       </c>
       <c r="H16">
-        <v>1.000071926568565</v>
+        <v>0.17696099</v>
       </c>
       <c r="I16">
-        <v>0.9999365421376439</v>
+        <v>0.17696099</v>
       </c>
       <c r="J16">
-        <v>1.000640812260579</v>
+        <v>1.2954751</v>
       </c>
       <c r="K16">
-        <v>0.9983992234231776</v>
+        <v>1.0697492</v>
       </c>
       <c r="L16">
-        <v>1.000572255497957</v>
+        <v>1.2954751</v>
       </c>
       <c r="M16">
-        <v>1.000606533879268</v>
+        <v>0.736218045</v>
       </c>
       <c r="N16">
-        <v>1.000606533879268</v>
+        <v>0.736218045</v>
       </c>
       <c r="O16">
-        <v>1.000428331442367</v>
+        <v>0.63727897</v>
       </c>
       <c r="P16">
-        <v>0.999870763727238</v>
+        <v>0.8473950966666667</v>
       </c>
       <c r="Q16">
-        <v>0.999870763727238</v>
+        <v>0.8473950966666667</v>
       </c>
       <c r="R16">
-        <v>0.999502878651223</v>
+        <v>0.9029836225</v>
       </c>
       <c r="S16">
-        <v>0.999502878651223</v>
+        <v>0.9029836225</v>
       </c>
       <c r="T16">
-        <v>1.000184166687408</v>
+        <v>1.030894335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001644908188163</v>
+        <v>1.0798472</v>
       </c>
       <c r="D17">
-        <v>0.9996655245847991</v>
+        <v>1.4356664</v>
       </c>
       <c r="E17">
-        <v>0.9993158025385912</v>
+        <v>0.78036109</v>
       </c>
       <c r="F17">
-        <v>1.001644908188163</v>
+        <v>1.0060831</v>
       </c>
       <c r="G17">
-        <v>0.9983497907190984</v>
+        <v>1.0060831</v>
       </c>
       <c r="H17">
-        <v>1.000047358002037</v>
+        <v>0.76183574</v>
       </c>
       <c r="I17">
-        <v>0.9999919311780319</v>
+        <v>0.76183574</v>
       </c>
       <c r="J17">
-        <v>0.9996655245847991</v>
+        <v>1.1119904</v>
       </c>
       <c r="K17">
-        <v>1.001644908188163</v>
+        <v>1.0060831</v>
       </c>
       <c r="L17">
-        <v>0.9993158025385912</v>
+        <v>1.1119904</v>
       </c>
       <c r="M17">
-        <v>0.9994906635616951</v>
+        <v>0.93691307</v>
       </c>
       <c r="N17">
-        <v>0.9994906635616951</v>
+        <v>0.93691307</v>
       </c>
       <c r="O17">
-        <v>0.9996762283751425</v>
+        <v>0.8847290766666666</v>
       </c>
       <c r="P17">
-        <v>1.000208745103851</v>
+        <v>0.9599697466666667</v>
       </c>
       <c r="Q17">
-        <v>1.000208745103851</v>
+        <v>0.9599697466666667</v>
       </c>
       <c r="R17">
-        <v>1.000567785874929</v>
+        <v>0.9714980849999999</v>
       </c>
       <c r="S17">
-        <v>1.000567785874929</v>
+        <v>0.9714980849999999</v>
       </c>
       <c r="T17">
-        <v>0.9998358858684536</v>
+        <v>1.029297321666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9972822023010334</v>
+        <v>0.9939302027397258</v>
       </c>
       <c r="D18">
-        <v>1.001447096620321</v>
+        <v>0.835936692191781</v>
       </c>
       <c r="E18">
-        <v>1.000795553994934</v>
+        <v>1.023188416712329</v>
       </c>
       <c r="F18">
-        <v>0.9972822023010334</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="G18">
-        <v>1.001653109060683</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="H18">
-        <v>1.000543946269374</v>
+        <v>0.9845380198630135</v>
       </c>
       <c r="I18">
-        <v>0.9997317362045341</v>
+        <v>0.9845380198630135</v>
       </c>
       <c r="J18">
-        <v>1.001447096620321</v>
+        <v>0.9448693708219186</v>
       </c>
       <c r="K18">
-        <v>0.9972822023010334</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="L18">
-        <v>1.000795553994934</v>
+        <v>0.9448693708219186</v>
       </c>
       <c r="M18">
-        <v>1.001121325307627</v>
+        <v>0.964703695342466</v>
       </c>
       <c r="N18">
-        <v>1.001121325307627</v>
+        <v>0.964703695342466</v>
       </c>
       <c r="O18">
-        <v>1.000928865628209</v>
+        <v>0.9841986024657535</v>
       </c>
       <c r="P18">
-        <v>0.9998416176387627</v>
+        <v>1.014897170958904</v>
       </c>
       <c r="Q18">
-        <v>0.9998416176387627</v>
+        <v>1.014897170958904</v>
       </c>
       <c r="R18">
-        <v>0.9992017638043303</v>
+        <v>1.039993908767123</v>
       </c>
       <c r="S18">
-        <v>0.9992017638043303</v>
+        <v>1.039993908767123</v>
       </c>
       <c r="T18">
-        <v>1.000242274075147</v>
+        <v>0.9829578040867583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9887443817820745</v>
+        <v>1.03257998368421</v>
       </c>
       <c r="D19">
-        <v>1.004376702498299</v>
+        <v>1.413737636842106</v>
       </c>
       <c r="E19">
-        <v>1.003733753017434</v>
+        <v>0.8793742347368422</v>
       </c>
       <c r="F19">
-        <v>0.9887443817820745</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="G19">
-        <v>1.007527058861167</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="H19">
-        <v>1.001545656278879</v>
+        <v>0.9757657942105262</v>
       </c>
       <c r="I19">
-        <v>0.9993609335869809</v>
+        <v>0.9757657942105262</v>
       </c>
       <c r="J19">
-        <v>1.004376702498299</v>
+        <v>1.103632683684211</v>
       </c>
       <c r="K19">
-        <v>0.9887443817820745</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="L19">
-        <v>1.003733753017434</v>
+        <v>1.103632683684211</v>
       </c>
       <c r="M19">
-        <v>1.004055227757867</v>
+        <v>1.039699238947368</v>
       </c>
       <c r="N19">
-        <v>1.004055227757867</v>
+        <v>1.039699238947368</v>
       </c>
       <c r="O19">
-        <v>1.003218703931537</v>
+        <v>0.9862575708771929</v>
       </c>
       <c r="P19">
-        <v>0.9989516124326028</v>
+        <v>0.9814643894736842</v>
       </c>
       <c r="Q19">
-        <v>0.9989516124326027</v>
+        <v>0.9814643894736843</v>
       </c>
       <c r="R19">
-        <v>0.9963998047699706</v>
+        <v>0.9523469647368422</v>
       </c>
       <c r="S19">
-        <v>0.9963998047699706</v>
+        <v>0.9523469647368422</v>
       </c>
       <c r="T19">
-        <v>1.000881414337472</v>
+        <v>1.045014170614035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.097159763157895</v>
+      </c>
+      <c r="D20">
+        <v>1.171185072631579</v>
+      </c>
+      <c r="E20">
+        <v>0.7863100678947369</v>
+      </c>
+      <c r="F20">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="G20">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="H20">
+        <v>0.6027306700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.6027306700000001</v>
+      </c>
+      <c r="J20">
+        <v>1.061160580526316</v>
+      </c>
+      <c r="K20">
+        <v>1.186693745789474</v>
+      </c>
+      <c r="L20">
+        <v>1.061160580526316</v>
+      </c>
+      <c r="M20">
+        <v>0.8319456252631579</v>
+      </c>
+      <c r="N20">
+        <v>0.8319456252631579</v>
+      </c>
+      <c r="O20">
+        <v>0.8167337728070175</v>
+      </c>
+      <c r="P20">
+        <v>0.9501949987719298</v>
+      </c>
+      <c r="Q20">
+        <v>0.9501949987719298</v>
+      </c>
+      <c r="R20">
+        <v>1.009319685526316</v>
+      </c>
+      <c r="S20">
+        <v>1.009319685526316</v>
+      </c>
+      <c r="T20">
+        <v>0.98420665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9572249217576906</v>
+      </c>
+      <c r="D21">
+        <v>1.044483302036352</v>
+      </c>
+      <c r="E21">
+        <v>1.072292437149501</v>
+      </c>
+      <c r="F21">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="G21">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="H21">
+        <v>1.225090019647668</v>
+      </c>
+      <c r="I21">
+        <v>1.225090019647668</v>
+      </c>
+      <c r="J21">
+        <v>0.9932718048500814</v>
+      </c>
+      <c r="K21">
+        <v>0.869042162737965</v>
+      </c>
+      <c r="L21">
+        <v>0.9932718048500814</v>
+      </c>
+      <c r="M21">
+        <v>1.109180912248874</v>
+      </c>
+      <c r="N21">
+        <v>1.109180912248874</v>
+      </c>
+      <c r="O21">
+        <v>1.096884753882417</v>
+      </c>
+      <c r="P21">
+        <v>1.029134662411905</v>
+      </c>
+      <c r="Q21">
+        <v>1.029134662411905</v>
+      </c>
+      <c r="R21">
+        <v>0.9891115374934196</v>
+      </c>
+      <c r="S21">
+        <v>0.9891115374934196</v>
+      </c>
+      <c r="T21">
+        <v>1.026900774696543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9974445398336368</v>
+      </c>
+      <c r="D22">
+        <v>0.9191395838574714</v>
+      </c>
+      <c r="E22">
+        <v>1.021504866922262</v>
+      </c>
+      <c r="F22">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="G22">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="H22">
+        <v>0.9747000332258716</v>
+      </c>
+      <c r="I22">
+        <v>0.9747000332258716</v>
+      </c>
+      <c r="J22">
+        <v>0.9887038079113074</v>
+      </c>
+      <c r="K22">
+        <v>1.018881546054003</v>
+      </c>
+      <c r="L22">
+        <v>0.9887038079113074</v>
+      </c>
+      <c r="M22">
+        <v>0.9817019205685895</v>
+      </c>
+      <c r="N22">
+        <v>0.9817019205685895</v>
+      </c>
+      <c r="O22">
+        <v>0.9949695693531471</v>
+      </c>
+      <c r="P22">
+        <v>0.9940951290637274</v>
+      </c>
+      <c r="Q22">
+        <v>0.9940951290637274</v>
+      </c>
+      <c r="R22">
+        <v>1.000291733311296</v>
+      </c>
+      <c r="S22">
+        <v>1.000291733311296</v>
+      </c>
+      <c r="T22">
+        <v>0.9867290629674255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9984295357935122</v>
+      </c>
+      <c r="D23">
+        <v>0.8139450249381859</v>
+      </c>
+      <c r="E23">
+        <v>1.025935258346493</v>
+      </c>
+      <c r="F23">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="G23">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="H23">
+        <v>0.9494678571038061</v>
+      </c>
+      <c r="I23">
+        <v>0.9494678571038061</v>
+      </c>
+      <c r="J23">
+        <v>0.9527156541130148</v>
+      </c>
+      <c r="K23">
+        <v>1.109063192977181</v>
+      </c>
+      <c r="L23">
+        <v>0.9527156541130148</v>
+      </c>
+      <c r="M23">
+        <v>0.9510917556084104</v>
+      </c>
+      <c r="N23">
+        <v>0.9510917556084104</v>
+      </c>
+      <c r="O23">
+        <v>0.9760395898544378</v>
+      </c>
+      <c r="P23">
+        <v>1.003748901398001</v>
+      </c>
+      <c r="Q23">
+        <v>1.003748901398001</v>
+      </c>
+      <c r="R23">
+        <v>1.030077474292796</v>
+      </c>
+      <c r="S23">
+        <v>1.030077474292796</v>
+      </c>
+      <c r="T23">
+        <v>0.9749260872120321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9901037861370713</v>
+      </c>
+      <c r="D24">
+        <v>1.059424617727472</v>
+      </c>
+      <c r="E24">
+        <v>1.006722688232293</v>
+      </c>
+      <c r="F24">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="G24">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="H24">
+        <v>1.073124679556563</v>
+      </c>
+      <c r="I24">
+        <v>1.073124679556563</v>
+      </c>
+      <c r="J24">
+        <v>1.005072393960247</v>
+      </c>
+      <c r="K24">
+        <v>0.9539315096628049</v>
+      </c>
+      <c r="L24">
+        <v>1.005072393960247</v>
+      </c>
+      <c r="M24">
+        <v>1.039098536758405</v>
+      </c>
+      <c r="N24">
+        <v>1.039098536758405</v>
+      </c>
+      <c r="O24">
+        <v>1.028306587249701</v>
+      </c>
+      <c r="P24">
+        <v>1.010709527726538</v>
+      </c>
+      <c r="Q24">
+        <v>1.010709527726538</v>
+      </c>
+      <c r="R24">
+        <v>0.996515023210605</v>
+      </c>
+      <c r="S24">
+        <v>0.996515023210605</v>
+      </c>
+      <c r="T24">
+        <v>1.014729945879409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.090077449511942</v>
+      </c>
+      <c r="D25">
+        <v>1.012756073547441</v>
+      </c>
+      <c r="E25">
+        <v>0.8188118921669938</v>
+      </c>
+      <c r="F25">
+        <v>1.269403658436403</v>
+      </c>
+      <c r="G25">
+        <v>1.269403658436403</v>
+      </c>
+      <c r="H25">
+        <v>0.5832188854149466</v>
+      </c>
+      <c r="I25">
+        <v>0.5832188854149466</v>
+      </c>
+      <c r="J25">
+        <v>1.01614767280845</v>
+      </c>
+      <c r="K25">
+        <v>1.269403658436403</v>
+      </c>
+      <c r="L25">
+        <v>1.01614767280845</v>
+      </c>
+      <c r="M25">
+        <v>0.7996832791116981</v>
+      </c>
+      <c r="N25">
+        <v>0.7996832791116981</v>
+      </c>
+      <c r="O25">
+        <v>0.8060594834634633</v>
+      </c>
+      <c r="P25">
+        <v>0.9562567388865997</v>
+      </c>
+      <c r="Q25">
+        <v>0.9562567388865997</v>
+      </c>
+      <c r="R25">
+        <v>1.03454346877405</v>
+      </c>
+      <c r="S25">
+        <v>1.03454346877405</v>
+      </c>
+      <c r="T25">
+        <v>0.9650692719810294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.017220793556042</v>
+      </c>
+      <c r="D26">
+        <v>1.136056112486327</v>
+      </c>
+      <c r="E26">
+        <v>0.9582940961315396</v>
+      </c>
+      <c r="F26">
+        <v>0.9362006260514731</v>
+      </c>
+      <c r="G26">
+        <v>0.9362006260514731</v>
+      </c>
+      <c r="H26">
+        <v>0.9478966363570642</v>
+      </c>
+      <c r="I26">
+        <v>0.9478966363570642</v>
+      </c>
+      <c r="J26">
+        <v>1.050606455621602</v>
+      </c>
+      <c r="K26">
+        <v>0.9362006260514731</v>
+      </c>
+      <c r="L26">
+        <v>1.050606455621602</v>
+      </c>
+      <c r="M26">
+        <v>0.999251545989333</v>
+      </c>
+      <c r="N26">
+        <v>0.999251545989333</v>
+      </c>
+      <c r="O26">
+        <v>0.9855990627034018</v>
+      </c>
+      <c r="P26">
+        <v>0.9782345726767131</v>
+      </c>
+      <c r="Q26">
+        <v>0.9782345726767131</v>
+      </c>
+      <c r="R26">
+        <v>0.9677260860204031</v>
+      </c>
+      <c r="S26">
+        <v>0.9677260860204031</v>
+      </c>
+      <c r="T26">
+        <v>1.007712453367341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9960418979476389</v>
+      </c>
+      <c r="D27">
+        <v>0.9897409777442462</v>
+      </c>
+      <c r="E27">
+        <v>1.001869475247258</v>
+      </c>
+      <c r="F27">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="G27">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="H27">
+        <v>1.02916856422068</v>
+      </c>
+      <c r="I27">
+        <v>1.02916856422068</v>
+      </c>
+      <c r="J27">
+        <v>0.9866042293693498</v>
+      </c>
+      <c r="K27">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="L27">
+        <v>0.9866042293693498</v>
+      </c>
+      <c r="M27">
+        <v>1.007886396795015</v>
+      </c>
+      <c r="N27">
+        <v>1.007886396795015</v>
+      </c>
+      <c r="O27">
+        <v>1.005880756279096</v>
+      </c>
+      <c r="P27">
+        <v>1.011620396998822</v>
+      </c>
+      <c r="Q27">
+        <v>1.011620396998822</v>
+      </c>
+      <c r="R27">
+        <v>1.013487397100726</v>
+      </c>
+      <c r="S27">
+        <v>1.013487397100726</v>
+      </c>
+      <c r="T27">
+        <v>1.003752256989268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.016673394090891</v>
+      </c>
+      <c r="D28">
+        <v>1.037434300675824</v>
+      </c>
+      <c r="E28">
+        <v>0.9659947394974249</v>
+      </c>
+      <c r="F28">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="G28">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="H28">
+        <v>0.9336221847721591</v>
+      </c>
+      <c r="I28">
+        <v>0.9336221847721591</v>
+      </c>
+      <c r="J28">
+        <v>1.018577173996684</v>
+      </c>
+      <c r="K28">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="L28">
+        <v>1.018577173996684</v>
+      </c>
+      <c r="M28">
+        <v>0.9760996793844214</v>
+      </c>
+      <c r="N28">
+        <v>0.9760996793844214</v>
+      </c>
+      <c r="O28">
+        <v>0.9727313660887559</v>
+      </c>
+      <c r="P28">
+        <v>0.9881271558292751</v>
+      </c>
+      <c r="Q28">
+        <v>0.9881271558292751</v>
+      </c>
+      <c r="R28">
+        <v>0.9941408940517019</v>
+      </c>
+      <c r="S28">
+        <v>0.9941408940517019</v>
+      </c>
+      <c r="T28">
+        <v>0.9974139836253274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.019539631990438</v>
+      </c>
+      <c r="D29">
+        <v>1.03584544429562</v>
+      </c>
+      <c r="E29">
+        <v>0.9468789836383426</v>
+      </c>
+      <c r="F29">
+        <v>1.07424230606279</v>
+      </c>
+      <c r="G29">
+        <v>1.07424230606279</v>
+      </c>
+      <c r="H29">
+        <v>0.9319867842915397</v>
+      </c>
+      <c r="I29">
+        <v>0.9319867842915397</v>
+      </c>
+      <c r="J29">
+        <v>0.9972517073817955</v>
+      </c>
+      <c r="K29">
+        <v>1.07424230606279</v>
+      </c>
+      <c r="L29">
+        <v>0.9972517073817955</v>
+      </c>
+      <c r="M29">
+        <v>0.9646192458366676</v>
+      </c>
+      <c r="N29">
+        <v>0.9646192458366676</v>
+      </c>
+      <c r="O29">
+        <v>0.9587058251038926</v>
+      </c>
+      <c r="P29">
+        <v>1.001160265912042</v>
+      </c>
+      <c r="Q29">
+        <v>1.001160265912042</v>
+      </c>
+      <c r="R29">
+        <v>1.019430775949729</v>
+      </c>
+      <c r="S29">
+        <v>1.019430775949729</v>
+      </c>
+      <c r="T29">
+        <v>1.000957476276754</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.03260161036861</v>
+        <v>0.9910260086134355</v>
       </c>
       <c r="D4">
-        <v>1.125116835047708</v>
+        <v>1.025959026844193</v>
       </c>
       <c r="E4">
-        <v>0.922814417813317</v>
+        <v>1.014824159203408</v>
       </c>
       <c r="F4">
-        <v>1.012866372455033</v>
+        <v>0.9556510368664883</v>
       </c>
       <c r="G4">
-        <v>1.012866372455033</v>
+        <v>0.9556510368664883</v>
       </c>
       <c r="H4">
-        <v>0.8803818038341966</v>
+        <v>1.050326151450064</v>
       </c>
       <c r="I4">
-        <v>0.8803818038341966</v>
+        <v>1.050326151450064</v>
       </c>
       <c r="J4">
-        <v>1.040852564567619</v>
+        <v>1.005749914674527</v>
       </c>
       <c r="K4">
-        <v>1.012866372455033</v>
+        <v>0.9556510368664883</v>
       </c>
       <c r="L4">
-        <v>1.040852564567619</v>
+        <v>1.005749914674527</v>
       </c>
       <c r="M4">
-        <v>0.9606171842009079</v>
+        <v>1.028038033062296</v>
       </c>
       <c r="N4">
-        <v>0.9606171842009079</v>
+        <v>1.028038033062296</v>
       </c>
       <c r="O4">
-        <v>0.948016262071711</v>
+        <v>1.023633408442666</v>
       </c>
       <c r="P4">
-        <v>0.9780335802856163</v>
+        <v>1.00390903433036</v>
       </c>
       <c r="Q4">
-        <v>0.9780335802856163</v>
+        <v>1.00390903433036</v>
       </c>
       <c r="R4">
-        <v>0.9867417783279704</v>
+        <v>0.9918445349643921</v>
       </c>
       <c r="S4">
-        <v>0.9867417783279704</v>
+        <v>0.9918445349643921</v>
       </c>
       <c r="T4">
-        <v>1.002438934014414</v>
+        <v>1.007256049608686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9917139972190193</v>
+        <v>1.108665750252519</v>
       </c>
       <c r="D5">
-        <v>1.029037140922189</v>
+        <v>1.175003648505654</v>
       </c>
       <c r="E5">
-        <v>1.012671839632563</v>
+        <v>0.7650352361579889</v>
       </c>
       <c r="F5">
-        <v>0.957224468040346</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="G5">
-        <v>0.957224468040346</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="H5">
-        <v>1.048471250151294</v>
+        <v>0.5486163265634254</v>
       </c>
       <c r="I5">
-        <v>1.048471250151294</v>
+        <v>0.5486163265634254</v>
       </c>
       <c r="J5">
-        <v>1.006190369286746</v>
+        <v>1.066641852591811</v>
       </c>
       <c r="K5">
-        <v>0.957224468040346</v>
+        <v>1.211960774177592</v>
       </c>
       <c r="L5">
-        <v>1.006190369286746</v>
+        <v>1.066641852591811</v>
       </c>
       <c r="M5">
-        <v>1.02733080971902</v>
+        <v>0.807629089577618</v>
       </c>
       <c r="N5">
-        <v>1.02733080971902</v>
+        <v>0.807629089577618</v>
       </c>
       <c r="O5">
-        <v>1.022444486356868</v>
+        <v>0.7934311384377416</v>
       </c>
       <c r="P5">
-        <v>1.003962029159462</v>
+        <v>0.9424063177776092</v>
       </c>
       <c r="Q5">
-        <v>1.003962029159462</v>
+        <v>0.9424063177776092</v>
       </c>
       <c r="R5">
-        <v>0.992277638879683</v>
+        <v>1.009794931877605</v>
       </c>
       <c r="S5">
-        <v>0.992277638879683</v>
+        <v>1.009794931877605</v>
       </c>
       <c r="T5">
-        <v>1.007551510875359</v>
+        <v>0.9793205980414982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9626112331731885</v>
+        <v>1.03260161036861</v>
       </c>
       <c r="D6">
-        <v>1.161893820257392</v>
+        <v>1.125116835047708</v>
       </c>
       <c r="E6">
-        <v>1.054089353350655</v>
+        <v>0.922814417813317</v>
       </c>
       <c r="F6">
-        <v>0.7845023629655168</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="G6">
-        <v>0.7845023629655168</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="H6">
-        <v>1.227849576852642</v>
+        <v>0.8803818038341966</v>
       </c>
       <c r="I6">
-        <v>1.227849576852642</v>
+        <v>0.8803818038341966</v>
       </c>
       <c r="J6">
-        <v>1.037690060914468</v>
+        <v>1.040852564567619</v>
       </c>
       <c r="K6">
-        <v>0.7845023629655168</v>
+        <v>1.012866372455033</v>
       </c>
       <c r="L6">
-        <v>1.037690060914468</v>
+        <v>1.040852564567619</v>
       </c>
       <c r="M6">
-        <v>1.132769818883555</v>
+        <v>0.9606171842009079</v>
       </c>
       <c r="N6">
-        <v>1.132769818883555</v>
+        <v>0.9606171842009079</v>
       </c>
       <c r="O6">
-        <v>1.106542997039255</v>
+        <v>0.948016262071711</v>
       </c>
       <c r="P6">
-        <v>1.016680666910876</v>
+        <v>0.9780335802856163</v>
       </c>
       <c r="Q6">
-        <v>1.016680666910876</v>
+        <v>0.9780335802856163</v>
       </c>
       <c r="R6">
-        <v>0.9586360909245359</v>
+        <v>0.9867417783279704</v>
       </c>
       <c r="S6">
-        <v>0.9586360909245359</v>
+        <v>0.9867417783279704</v>
       </c>
       <c r="T6">
-        <v>1.038106067918977</v>
+        <v>1.002438934014414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000049772319088</v>
+        <v>0.9917139972190193</v>
       </c>
       <c r="D7">
-        <v>0.9929438179920967</v>
+        <v>1.029037140922189</v>
       </c>
       <c r="E7">
-        <v>1.00038129114111</v>
+        <v>1.012671839632563</v>
       </c>
       <c r="F7">
-        <v>1.005892692879361</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="G7">
-        <v>1.005892692879361</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="H7">
-        <v>0.9979501485341842</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="I7">
-        <v>0.9979501485341842</v>
+        <v>1.048471250151294</v>
       </c>
       <c r="J7">
-        <v>0.9976700088684584</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="K7">
-        <v>1.005892692879361</v>
+        <v>0.957224468040346</v>
       </c>
       <c r="L7">
-        <v>0.9976700088684584</v>
+        <v>1.006190369286746</v>
       </c>
       <c r="M7">
-        <v>0.9978100787013213</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="N7">
-        <v>0.9978100787013213</v>
+        <v>1.02733080971902</v>
       </c>
       <c r="O7">
-        <v>0.998667149514584</v>
+        <v>1.022444486356868</v>
       </c>
       <c r="P7">
-        <v>1.000504283427335</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="Q7">
-        <v>1.000504283427335</v>
+        <v>1.003962029159462</v>
       </c>
       <c r="R7">
-        <v>1.001851385790341</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="S7">
-        <v>1.001851385790341</v>
+        <v>0.992277638879683</v>
       </c>
       <c r="T7">
-        <v>0.9991479552890495</v>
+        <v>1.007551510875359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999919311780319</v>
+        <v>0.9626112331731885</v>
       </c>
       <c r="D8">
-        <v>0.9983497907190984</v>
+        <v>1.161893820257392</v>
       </c>
       <c r="E8">
-        <v>1.000047358002037</v>
+        <v>1.054089353350655</v>
       </c>
       <c r="F8">
-        <v>1.001644908188164</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="G8">
-        <v>1.001644908188164</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="H8">
-        <v>0.9996655245847991</v>
+        <v>1.227849576852642</v>
       </c>
       <c r="I8">
-        <v>0.9996655245847991</v>
+        <v>1.227849576852642</v>
       </c>
       <c r="J8">
-        <v>0.9993158025385912</v>
+        <v>1.037690060914468</v>
       </c>
       <c r="K8">
-        <v>1.001644908188164</v>
+        <v>0.7845023629655168</v>
       </c>
       <c r="L8">
-        <v>0.9993158025385912</v>
+        <v>1.037690060914468</v>
       </c>
       <c r="M8">
-        <v>0.9994906635616951</v>
+        <v>1.132769818883555</v>
       </c>
       <c r="N8">
-        <v>0.9994906635616951</v>
+        <v>1.132769818883555</v>
       </c>
       <c r="O8">
-        <v>0.9996762283751425</v>
+        <v>1.106542997039255</v>
       </c>
       <c r="P8">
-        <v>1.000208745103851</v>
+        <v>1.016680666910876</v>
       </c>
       <c r="Q8">
-        <v>1.000208745103851</v>
+        <v>1.016680666910876</v>
       </c>
       <c r="R8">
-        <v>1.000567785874929</v>
+        <v>0.9586360909245359</v>
       </c>
       <c r="S8">
-        <v>1.000567785874929</v>
+        <v>0.9586360909245359</v>
       </c>
       <c r="T8">
-        <v>0.9998358858684536</v>
+        <v>1.038106067918977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9992476470130748</v>
+        <v>1.000049772319088</v>
       </c>
       <c r="D9">
-        <v>0.9871908795186997</v>
+        <v>0.9929438179920967</v>
       </c>
       <c r="E9">
-        <v>1.002389873954126</v>
+        <v>1.00038129114111</v>
       </c>
       <c r="F9">
-        <v>1.008044515889283</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="G9">
-        <v>1.008044515889283</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="H9">
-        <v>1.000037250976932</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="I9">
-        <v>1.000037250976932</v>
+        <v>0.9979501485341842</v>
       </c>
       <c r="J9">
-        <v>0.9957074297342631</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="K9">
-        <v>1.008044515889283</v>
+        <v>1.005892692879361</v>
       </c>
       <c r="L9">
-        <v>0.9957074297342631</v>
+        <v>0.9976700088684584</v>
       </c>
       <c r="M9">
-        <v>0.9978723403555974</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="N9">
-        <v>0.9978723403555974</v>
+        <v>0.9978100787013213</v>
       </c>
       <c r="O9">
-        <v>0.9993781848884403</v>
+        <v>0.998667149514584</v>
       </c>
       <c r="P9">
-        <v>1.001263065533493</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="Q9">
-        <v>1.001263065533493</v>
+        <v>1.000504283427335</v>
       </c>
       <c r="R9">
-        <v>1.00295842812244</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="S9">
-        <v>1.00295842812244</v>
+        <v>1.001851385790341</v>
       </c>
       <c r="T9">
-        <v>0.9987695995143965</v>
+        <v>0.9991479552890495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9617616585398391</v>
+        <v>0.9999919311780319</v>
       </c>
       <c r="D10">
-        <v>1.168051110188026</v>
+        <v>0.9983497907190984</v>
       </c>
       <c r="E10">
-        <v>1.054955934507786</v>
+        <v>1.000047358002037</v>
       </c>
       <c r="F10">
-        <v>0.7783392037000998</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="G10">
-        <v>0.7783392037000998</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="H10">
-        <v>1.233828756311153</v>
+        <v>0.9996655245847991</v>
       </c>
       <c r="I10">
-        <v>1.233828756311153</v>
+        <v>0.9996655245847991</v>
       </c>
       <c r="J10">
-        <v>1.039062512308648</v>
+        <v>0.9993158025385912</v>
       </c>
       <c r="K10">
-        <v>0.7783392037000998</v>
+        <v>1.001644908188164</v>
       </c>
       <c r="L10">
-        <v>1.039062512308648</v>
+        <v>0.9993158025385912</v>
       </c>
       <c r="M10">
-        <v>1.1364456343099</v>
+        <v>0.9994906635616951</v>
       </c>
       <c r="N10">
-        <v>1.1364456343099</v>
+        <v>0.9994906635616951</v>
       </c>
       <c r="O10">
-        <v>1.109282401042529</v>
+        <v>0.9996762283751425</v>
       </c>
       <c r="P10">
-        <v>1.017076824106633</v>
+        <v>1.000208745103851</v>
       </c>
       <c r="Q10">
-        <v>1.017076824106634</v>
+        <v>1.000208745103851</v>
       </c>
       <c r="R10">
-        <v>0.9573924190050002</v>
+        <v>1.000567785874929</v>
       </c>
       <c r="S10">
-        <v>0.9573924190050002</v>
+        <v>1.000567785874929</v>
       </c>
       <c r="T10">
-        <v>1.039333195925925</v>
+        <v>0.9998358858684536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.026608836097689</v>
+        <v>0.9992476470130748</v>
       </c>
       <c r="D11">
-        <v>1.067211201416898</v>
+        <v>0.9871908795186997</v>
       </c>
       <c r="E11">
-        <v>0.9418946714028472</v>
+        <v>1.002389873954126</v>
       </c>
       <c r="F11">
-        <v>1.02888251751232</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="G11">
-        <v>1.02888251751232</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="H11">
-        <v>0.8924045175091209</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="I11">
-        <v>0.8924045175091209</v>
+        <v>1.000037250976932</v>
       </c>
       <c r="J11">
-        <v>1.025742553171598</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="K11">
-        <v>1.02888251751232</v>
+        <v>1.008044515889283</v>
       </c>
       <c r="L11">
-        <v>1.025742553171598</v>
+        <v>0.9957074297342631</v>
       </c>
       <c r="M11">
-        <v>0.9590735353403593</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="N11">
-        <v>0.9590735353403593</v>
+        <v>0.9978723403555974</v>
       </c>
       <c r="O11">
-        <v>0.9533472473611887</v>
+        <v>0.9993781848884403</v>
       </c>
       <c r="P11">
-        <v>0.9823431960643463</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="Q11">
-        <v>0.9823431960643463</v>
+        <v>1.001263065533493</v>
       </c>
       <c r="R11">
-        <v>0.9939780264263398</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="S11">
-        <v>0.9939780264263398</v>
+        <v>1.00295842812244</v>
       </c>
       <c r="T11">
-        <v>0.997124049518412</v>
+        <v>0.9987695995143965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9894837402526323</v>
+        <v>0.9617616585398391</v>
       </c>
       <c r="D12">
-        <v>1.054092794926317</v>
+        <v>1.168051110188026</v>
       </c>
       <c r="E12">
-        <v>1.014413725684208</v>
+        <v>1.054955934507786</v>
       </c>
       <c r="F12">
-        <v>0.9335434384526343</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="G12">
-        <v>0.9335434384526343</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="H12">
-        <v>1.066189348042102</v>
+        <v>1.233828756311153</v>
       </c>
       <c r="I12">
-        <v>1.066189348042102</v>
+        <v>1.233828756311153</v>
       </c>
       <c r="J12">
-        <v>1.012894803705263</v>
+        <v>1.039062512308648</v>
       </c>
       <c r="K12">
-        <v>0.9335434384526343</v>
+        <v>0.7783392037000998</v>
       </c>
       <c r="L12">
-        <v>1.012894803705263</v>
+        <v>1.039062512308648</v>
       </c>
       <c r="M12">
-        <v>1.039542075873682</v>
+        <v>1.1364456343099</v>
       </c>
       <c r="N12">
-        <v>1.039542075873682</v>
+        <v>1.1364456343099</v>
       </c>
       <c r="O12">
-        <v>1.031165959143857</v>
+        <v>1.109282401042529</v>
       </c>
       <c r="P12">
-        <v>1.004209196733333</v>
+        <v>1.017076824106633</v>
       </c>
       <c r="Q12">
-        <v>1.004209196733333</v>
+        <v>1.017076824106634</v>
       </c>
       <c r="R12">
-        <v>0.9865427571631582</v>
+        <v>0.9573924190050002</v>
       </c>
       <c r="S12">
-        <v>0.9865427571631582</v>
+        <v>0.9573924190050002</v>
       </c>
       <c r="T12">
-        <v>1.011769641843859</v>
+        <v>1.039333195925925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004543501442338</v>
+        <v>1.026608836097689</v>
       </c>
       <c r="D13">
-        <v>1.007240747742268</v>
+        <v>1.067211201416898</v>
       </c>
       <c r="E13">
-        <v>0.989688363998481</v>
+        <v>0.9418946714028472</v>
       </c>
       <c r="F13">
-        <v>1.011111529479866</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="G13">
-        <v>1.011111529479866</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="H13">
-        <v>0.9811442520065464</v>
+        <v>0.8924045175091209</v>
       </c>
       <c r="I13">
-        <v>0.9811442520065464</v>
+        <v>0.8924045175091209</v>
       </c>
       <c r="J13">
-        <v>1.001809631996775</v>
+        <v>1.025742553171598</v>
       </c>
       <c r="K13">
-        <v>1.011111529479866</v>
+        <v>1.02888251751232</v>
       </c>
       <c r="L13">
-        <v>1.001809631996775</v>
+        <v>1.025742553171598</v>
       </c>
       <c r="M13">
-        <v>0.9914769420016607</v>
+        <v>0.9590735353403593</v>
       </c>
       <c r="N13">
-        <v>0.9914769420016607</v>
+        <v>0.9590735353403593</v>
       </c>
       <c r="O13">
-        <v>0.9908807493339342</v>
+        <v>0.9533472473611887</v>
       </c>
       <c r="P13">
-        <v>0.9980218044943959</v>
+        <v>0.9823431960643463</v>
       </c>
       <c r="Q13">
-        <v>0.9980218044943959</v>
+        <v>0.9823431960643463</v>
       </c>
       <c r="R13">
-        <v>1.001294235740763</v>
+        <v>0.9939780264263398</v>
       </c>
       <c r="S13">
-        <v>1.001294235740763</v>
+        <v>0.9939780264263398</v>
       </c>
       <c r="T13">
-        <v>0.9992563377777125</v>
+        <v>0.997124049518412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9333824599999991</v>
+        <v>0.9894837402526323</v>
       </c>
       <c r="D14">
-        <v>1.299238500000001</v>
+        <v>1.054092794926317</v>
       </c>
       <c r="E14">
-        <v>1.0949889</v>
+        <v>1.014413725684208</v>
       </c>
       <c r="F14">
-        <v>0.6092513700000003</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="G14">
-        <v>0.6092513700000003</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="H14">
-        <v>1.409533400000001</v>
+        <v>1.066189348042102</v>
       </c>
       <c r="I14">
-        <v>1.409533400000001</v>
+        <v>1.066189348042102</v>
       </c>
       <c r="J14">
-        <v>1.0701633</v>
+        <v>1.012894803705263</v>
       </c>
       <c r="K14">
-        <v>0.6092513700000003</v>
+        <v>0.9335434384526343</v>
       </c>
       <c r="L14">
-        <v>1.0701633</v>
+        <v>1.012894803705263</v>
       </c>
       <c r="M14">
-        <v>1.23984835</v>
+        <v>1.039542075873682</v>
       </c>
       <c r="N14">
-        <v>1.23984835</v>
+        <v>1.039542075873682</v>
       </c>
       <c r="O14">
-        <v>1.191561866666667</v>
+        <v>1.031165959143857</v>
       </c>
       <c r="P14">
-        <v>1.029649356666667</v>
+        <v>1.004209196733333</v>
       </c>
       <c r="Q14">
-        <v>1.029649356666667</v>
+        <v>1.004209196733333</v>
       </c>
       <c r="R14">
-        <v>0.9245498600000003</v>
+        <v>0.9865427571631582</v>
       </c>
       <c r="S14">
-        <v>0.9245498600000003</v>
+        <v>0.9865427571631582</v>
       </c>
       <c r="T14">
-        <v>1.069426321666667</v>
+        <v>1.011769641843859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1585466</v>
+        <v>1.004543501442338</v>
       </c>
       <c r="D15">
-        <v>0.66920919</v>
+        <v>1.007240747742268</v>
       </c>
       <c r="E15">
-        <v>0.6454245799999999</v>
+        <v>0.989688363998481</v>
       </c>
       <c r="F15">
-        <v>1.9813918</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="G15">
-        <v>1.9813918</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="H15">
-        <v>0.21885897</v>
+        <v>0.9811442520065464</v>
       </c>
       <c r="I15">
-        <v>0.21885897</v>
+        <v>0.9811442520065464</v>
       </c>
       <c r="J15">
-        <v>0.8289786500000002</v>
+        <v>1.001809631996775</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>1.011111529479866</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>1.001809631996775</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>0.9914769420016607</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>0.9914769420016607</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>0.9908807493339342</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>0.9980218044943959</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>0.9980218044943959</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>1.001294235740763</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>1.001294235740763</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>0.9992563377777125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2279468</v>
+        <v>0.9333824599999991</v>
       </c>
       <c r="D16">
-        <v>1.9758331</v>
+        <v>1.299238500000001</v>
       </c>
       <c r="E16">
-        <v>0.43940082</v>
+        <v>1.0949889</v>
       </c>
       <c r="F16">
-        <v>1.0697492</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="G16">
-        <v>1.0697492</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="H16">
-        <v>0.17696099</v>
+        <v>1.409533400000001</v>
       </c>
       <c r="I16">
-        <v>0.17696099</v>
+        <v>1.409533400000001</v>
       </c>
       <c r="J16">
-        <v>1.2954751</v>
+        <v>1.0701633</v>
       </c>
       <c r="K16">
-        <v>1.0697492</v>
+        <v>0.6092513700000003</v>
       </c>
       <c r="L16">
-        <v>1.2954751</v>
+        <v>1.0701633</v>
       </c>
       <c r="M16">
-        <v>0.736218045</v>
+        <v>1.23984835</v>
       </c>
       <c r="N16">
-        <v>0.736218045</v>
+        <v>1.23984835</v>
       </c>
       <c r="O16">
-        <v>0.63727897</v>
+        <v>1.191561866666667</v>
       </c>
       <c r="P16">
-        <v>0.8473950966666667</v>
+        <v>1.029649356666667</v>
       </c>
       <c r="Q16">
-        <v>0.8473950966666667</v>
+        <v>1.029649356666667</v>
       </c>
       <c r="R16">
-        <v>0.9029836225</v>
+        <v>0.9245498600000003</v>
       </c>
       <c r="S16">
-        <v>0.9029836225</v>
+        <v>0.9245498600000003</v>
       </c>
       <c r="T16">
-        <v>1.030894335</v>
+        <v>1.069426321666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0798472</v>
+        <v>1.1585466</v>
       </c>
       <c r="D17">
-        <v>1.4356664</v>
+        <v>0.66920919</v>
       </c>
       <c r="E17">
-        <v>0.78036109</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F17">
-        <v>1.0060831</v>
+        <v>1.9813918</v>
       </c>
       <c r="G17">
-        <v>1.0060831</v>
+        <v>1.9813918</v>
       </c>
       <c r="H17">
-        <v>0.76183574</v>
+        <v>0.21885897</v>
       </c>
       <c r="I17">
-        <v>0.76183574</v>
+        <v>0.21885897</v>
       </c>
       <c r="J17">
-        <v>1.1119904</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="K17">
-        <v>1.0060831</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>1.1119904</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.93691307</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.93691307</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.8847290766666666</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>0.9599697466666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>0.9599697466666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>0.9714980849999999</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>0.9714980849999999</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>1.029297321666667</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9939302027397258</v>
+        <v>1.2279468</v>
       </c>
       <c r="D18">
-        <v>0.835936692191781</v>
+        <v>1.9758331</v>
       </c>
       <c r="E18">
-        <v>1.023188416712329</v>
+        <v>0.43940082</v>
       </c>
       <c r="F18">
-        <v>1.115284122191781</v>
+        <v>1.0697492</v>
       </c>
       <c r="G18">
-        <v>1.115284122191781</v>
+        <v>1.0697492</v>
       </c>
       <c r="H18">
-        <v>0.9845380198630135</v>
+        <v>0.17696099</v>
       </c>
       <c r="I18">
-        <v>0.9845380198630135</v>
+        <v>0.17696099</v>
       </c>
       <c r="J18">
-        <v>0.9448693708219186</v>
+        <v>1.2954751</v>
       </c>
       <c r="K18">
-        <v>1.115284122191781</v>
+        <v>1.0697492</v>
       </c>
       <c r="L18">
-        <v>0.9448693708219186</v>
+        <v>1.2954751</v>
       </c>
       <c r="M18">
-        <v>0.964703695342466</v>
+        <v>0.736218045</v>
       </c>
       <c r="N18">
-        <v>0.964703695342466</v>
+        <v>0.736218045</v>
       </c>
       <c r="O18">
-        <v>0.9841986024657535</v>
+        <v>0.63727897</v>
       </c>
       <c r="P18">
-        <v>1.014897170958904</v>
+        <v>0.8473950966666667</v>
       </c>
       <c r="Q18">
-        <v>1.014897170958904</v>
+        <v>0.8473950966666667</v>
       </c>
       <c r="R18">
-        <v>1.039993908767123</v>
+        <v>0.9029836225</v>
       </c>
       <c r="S18">
-        <v>1.039993908767123</v>
+        <v>0.9029836225</v>
       </c>
       <c r="T18">
-        <v>0.9829578040867583</v>
+        <v>1.030894335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.03257998368421</v>
+        <v>1.0798472</v>
       </c>
       <c r="D19">
-        <v>1.413737636842106</v>
+        <v>1.4356664</v>
       </c>
       <c r="E19">
-        <v>0.8793742347368422</v>
+        <v>0.78036109</v>
       </c>
       <c r="F19">
-        <v>0.8649946905263158</v>
+        <v>1.0060831</v>
       </c>
       <c r="G19">
-        <v>0.8649946905263158</v>
+        <v>1.0060831</v>
       </c>
       <c r="H19">
-        <v>0.9757657942105262</v>
+        <v>0.76183574</v>
       </c>
       <c r="I19">
-        <v>0.9757657942105262</v>
+        <v>0.76183574</v>
       </c>
       <c r="J19">
-        <v>1.103632683684211</v>
+        <v>1.1119904</v>
       </c>
       <c r="K19">
-        <v>0.8649946905263158</v>
+        <v>1.0060831</v>
       </c>
       <c r="L19">
-        <v>1.103632683684211</v>
+        <v>1.1119904</v>
       </c>
       <c r="M19">
-        <v>1.039699238947368</v>
+        <v>0.93691307</v>
       </c>
       <c r="N19">
-        <v>1.039699238947368</v>
+        <v>0.93691307</v>
       </c>
       <c r="O19">
-        <v>0.9862575708771929</v>
+        <v>0.8847290766666666</v>
       </c>
       <c r="P19">
-        <v>0.9814643894736842</v>
+        <v>0.9599697466666667</v>
       </c>
       <c r="Q19">
-        <v>0.9814643894736843</v>
+        <v>0.9599697466666667</v>
       </c>
       <c r="R19">
-        <v>0.9523469647368422</v>
+        <v>0.9714980849999999</v>
       </c>
       <c r="S19">
-        <v>0.9523469647368422</v>
+        <v>0.9714980849999999</v>
       </c>
       <c r="T19">
-        <v>1.045014170614035</v>
+        <v>1.029297321666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.097159763157895</v>
+        <v>0.9939302027397258</v>
       </c>
       <c r="D20">
-        <v>1.171185072631579</v>
+        <v>0.835936692191781</v>
       </c>
       <c r="E20">
-        <v>0.7863100678947369</v>
+        <v>1.023188416712329</v>
       </c>
       <c r="F20">
-        <v>1.186693745789474</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="G20">
-        <v>1.186693745789474</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="H20">
-        <v>0.6027306700000001</v>
+        <v>0.9845380198630135</v>
       </c>
       <c r="I20">
-        <v>0.6027306700000001</v>
+        <v>0.9845380198630135</v>
       </c>
       <c r="J20">
-        <v>1.061160580526316</v>
+        <v>0.9448693708219186</v>
       </c>
       <c r="K20">
-        <v>1.186693745789474</v>
+        <v>1.115284122191781</v>
       </c>
       <c r="L20">
-        <v>1.061160580526316</v>
+        <v>0.9448693708219186</v>
       </c>
       <c r="M20">
-        <v>0.8319456252631579</v>
+        <v>0.964703695342466</v>
       </c>
       <c r="N20">
-        <v>0.8319456252631579</v>
+        <v>0.964703695342466</v>
       </c>
       <c r="O20">
-        <v>0.8167337728070175</v>
+        <v>0.9841986024657535</v>
       </c>
       <c r="P20">
-        <v>0.9501949987719298</v>
+        <v>1.014897170958904</v>
       </c>
       <c r="Q20">
-        <v>0.9501949987719298</v>
+        <v>1.014897170958904</v>
       </c>
       <c r="R20">
-        <v>1.009319685526316</v>
+        <v>1.039993908767123</v>
       </c>
       <c r="S20">
-        <v>1.009319685526316</v>
+        <v>1.039993908767123</v>
       </c>
       <c r="T20">
-        <v>0.98420665</v>
+        <v>0.9829578040867583</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9572249217576906</v>
+        <v>1.03257998368421</v>
       </c>
       <c r="D21">
-        <v>1.044483302036352</v>
+        <v>1.413737636842106</v>
       </c>
       <c r="E21">
-        <v>1.072292437149501</v>
+        <v>0.8793742347368422</v>
       </c>
       <c r="F21">
-        <v>0.869042162737965</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="G21">
-        <v>0.869042162737965</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="H21">
-        <v>1.225090019647668</v>
+        <v>0.9757657942105262</v>
       </c>
       <c r="I21">
-        <v>1.225090019647668</v>
+        <v>0.9757657942105262</v>
       </c>
       <c r="J21">
-        <v>0.9932718048500814</v>
+        <v>1.103632683684211</v>
       </c>
       <c r="K21">
-        <v>0.869042162737965</v>
+        <v>0.8649946905263158</v>
       </c>
       <c r="L21">
-        <v>0.9932718048500814</v>
+        <v>1.103632683684211</v>
       </c>
       <c r="M21">
-        <v>1.109180912248874</v>
+        <v>1.039699238947368</v>
       </c>
       <c r="N21">
-        <v>1.109180912248874</v>
+        <v>1.039699238947368</v>
       </c>
       <c r="O21">
-        <v>1.096884753882417</v>
+        <v>0.9862575708771929</v>
       </c>
       <c r="P21">
-        <v>1.029134662411905</v>
+        <v>0.9814643894736842</v>
       </c>
       <c r="Q21">
-        <v>1.029134662411905</v>
+        <v>0.9814643894736843</v>
       </c>
       <c r="R21">
-        <v>0.9891115374934196</v>
+        <v>0.9523469647368422</v>
       </c>
       <c r="S21">
-        <v>0.9891115374934196</v>
+        <v>0.9523469647368422</v>
       </c>
       <c r="T21">
-        <v>1.026900774696543</v>
+        <v>1.045014170614035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9974445398336368</v>
+        <v>1.097159763157895</v>
       </c>
       <c r="D22">
-        <v>0.9191395838574714</v>
+        <v>1.171185072631579</v>
       </c>
       <c r="E22">
-        <v>1.021504866922262</v>
+        <v>0.7863100678947369</v>
       </c>
       <c r="F22">
-        <v>1.018881546054003</v>
+        <v>1.186693745789474</v>
       </c>
       <c r="G22">
-        <v>1.018881546054003</v>
+        <v>1.186693745789474</v>
       </c>
       <c r="H22">
-        <v>0.9747000332258716</v>
+        <v>0.6027306700000001</v>
       </c>
       <c r="I22">
-        <v>0.9747000332258716</v>
+        <v>0.6027306700000001</v>
       </c>
       <c r="J22">
-        <v>0.9887038079113074</v>
+        <v>1.061160580526316</v>
       </c>
       <c r="K22">
-        <v>1.018881546054003</v>
+        <v>1.186693745789474</v>
       </c>
       <c r="L22">
-        <v>0.9887038079113074</v>
+        <v>1.061160580526316</v>
       </c>
       <c r="M22">
-        <v>0.9817019205685895</v>
+        <v>0.8319456252631579</v>
       </c>
       <c r="N22">
-        <v>0.9817019205685895</v>
+        <v>0.8319456252631579</v>
       </c>
       <c r="O22">
-        <v>0.9949695693531471</v>
+        <v>0.8167337728070175</v>
       </c>
       <c r="P22">
-        <v>0.9940951290637274</v>
+        <v>0.9501949987719298</v>
       </c>
       <c r="Q22">
-        <v>0.9940951290637274</v>
+        <v>0.9501949987719298</v>
       </c>
       <c r="R22">
-        <v>1.000291733311296</v>
+        <v>1.009319685526316</v>
       </c>
       <c r="S22">
-        <v>1.000291733311296</v>
+        <v>1.009319685526316</v>
       </c>
       <c r="T22">
-        <v>0.9867290629674255</v>
+        <v>0.98420665</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9984295357935122</v>
+        <v>0.9572249217576906</v>
       </c>
       <c r="D23">
-        <v>0.8139450249381859</v>
+        <v>1.044483302036352</v>
       </c>
       <c r="E23">
-        <v>1.025935258346493</v>
+        <v>1.072292437149501</v>
       </c>
       <c r="F23">
-        <v>1.109063192977181</v>
+        <v>0.869042162737965</v>
       </c>
       <c r="G23">
-        <v>1.109063192977181</v>
+        <v>0.869042162737965</v>
       </c>
       <c r="H23">
-        <v>0.9494678571038061</v>
+        <v>1.225090019647668</v>
       </c>
       <c r="I23">
-        <v>0.9494678571038061</v>
+        <v>1.225090019647668</v>
       </c>
       <c r="J23">
-        <v>0.9527156541130148</v>
+        <v>0.9932718048500814</v>
       </c>
       <c r="K23">
-        <v>1.109063192977181</v>
+        <v>0.869042162737965</v>
       </c>
       <c r="L23">
-        <v>0.9527156541130148</v>
+        <v>0.9932718048500814</v>
       </c>
       <c r="M23">
-        <v>0.9510917556084104</v>
+        <v>1.109180912248874</v>
       </c>
       <c r="N23">
-        <v>0.9510917556084104</v>
+        <v>1.109180912248874</v>
       </c>
       <c r="O23">
-        <v>0.9760395898544378</v>
+        <v>1.096884753882417</v>
       </c>
       <c r="P23">
-        <v>1.003748901398001</v>
+        <v>1.029134662411905</v>
       </c>
       <c r="Q23">
-        <v>1.003748901398001</v>
+        <v>1.029134662411905</v>
       </c>
       <c r="R23">
-        <v>1.030077474292796</v>
+        <v>0.9891115374934196</v>
       </c>
       <c r="S23">
-        <v>1.030077474292796</v>
+        <v>0.9891115374934196</v>
       </c>
       <c r="T23">
-        <v>0.9749260872120321</v>
+        <v>1.026900774696543</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9901037861370713</v>
+        <v>0.9974445398336368</v>
       </c>
       <c r="D24">
-        <v>1.059424617727472</v>
+        <v>0.9191395838574714</v>
       </c>
       <c r="E24">
-        <v>1.006722688232293</v>
+        <v>1.021504866922262</v>
       </c>
       <c r="F24">
-        <v>0.9539315096628049</v>
+        <v>1.018881546054003</v>
       </c>
       <c r="G24">
-        <v>0.9539315096628049</v>
+        <v>1.018881546054003</v>
       </c>
       <c r="H24">
-        <v>1.073124679556563</v>
+        <v>0.9747000332258716</v>
       </c>
       <c r="I24">
-        <v>1.073124679556563</v>
+        <v>0.9747000332258716</v>
       </c>
       <c r="J24">
-        <v>1.005072393960247</v>
+        <v>0.9887038079113074</v>
       </c>
       <c r="K24">
-        <v>0.9539315096628049</v>
+        <v>1.018881546054003</v>
       </c>
       <c r="L24">
-        <v>1.005072393960247</v>
+        <v>0.9887038079113074</v>
       </c>
       <c r="M24">
-        <v>1.039098536758405</v>
+        <v>0.9817019205685895</v>
       </c>
       <c r="N24">
-        <v>1.039098536758405</v>
+        <v>0.9817019205685895</v>
       </c>
       <c r="O24">
-        <v>1.028306587249701</v>
+        <v>0.9949695693531471</v>
       </c>
       <c r="P24">
-        <v>1.010709527726538</v>
+        <v>0.9940951290637274</v>
       </c>
       <c r="Q24">
-        <v>1.010709527726538</v>
+        <v>0.9940951290637274</v>
       </c>
       <c r="R24">
-        <v>0.996515023210605</v>
+        <v>1.000291733311296</v>
       </c>
       <c r="S24">
-        <v>0.996515023210605</v>
+        <v>1.000291733311296</v>
       </c>
       <c r="T24">
-        <v>1.014729945879409</v>
+        <v>0.9867290629674255</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.090077449511942</v>
+        <v>0.9984295357935122</v>
       </c>
       <c r="D25">
-        <v>1.012756073547441</v>
+        <v>0.8139450249381859</v>
       </c>
       <c r="E25">
-        <v>0.8188118921669938</v>
+        <v>1.025935258346493</v>
       </c>
       <c r="F25">
-        <v>1.269403658436403</v>
+        <v>1.109063192977181</v>
       </c>
       <c r="G25">
-        <v>1.269403658436403</v>
+        <v>1.109063192977181</v>
       </c>
       <c r="H25">
-        <v>0.5832188854149466</v>
+        <v>0.9494678571038061</v>
       </c>
       <c r="I25">
-        <v>0.5832188854149466</v>
+        <v>0.9494678571038061</v>
       </c>
       <c r="J25">
-        <v>1.01614767280845</v>
+        <v>0.9527156541130148</v>
       </c>
       <c r="K25">
-        <v>1.269403658436403</v>
+        <v>1.109063192977181</v>
       </c>
       <c r="L25">
-        <v>1.01614767280845</v>
+        <v>0.9527156541130148</v>
       </c>
       <c r="M25">
-        <v>0.7996832791116981</v>
+        <v>0.9510917556084104</v>
       </c>
       <c r="N25">
-        <v>0.7996832791116981</v>
+        <v>0.9510917556084104</v>
       </c>
       <c r="O25">
-        <v>0.8060594834634633</v>
+        <v>0.9760395898544378</v>
       </c>
       <c r="P25">
-        <v>0.9562567388865997</v>
+        <v>1.003748901398001</v>
       </c>
       <c r="Q25">
-        <v>0.9562567388865997</v>
+        <v>1.003748901398001</v>
       </c>
       <c r="R25">
-        <v>1.03454346877405</v>
+        <v>1.030077474292796</v>
       </c>
       <c r="S25">
-        <v>1.03454346877405</v>
+        <v>1.030077474292796</v>
       </c>
       <c r="T25">
-        <v>0.9650692719810294</v>
+        <v>0.9749260872120321</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.017220793556042</v>
+        <v>0.9901037861370713</v>
       </c>
       <c r="D26">
-        <v>1.136056112486327</v>
+        <v>1.059424617727472</v>
       </c>
       <c r="E26">
-        <v>0.9582940961315396</v>
+        <v>1.006722688232293</v>
       </c>
       <c r="F26">
-        <v>0.9362006260514731</v>
+        <v>0.9539315096628049</v>
       </c>
       <c r="G26">
-        <v>0.9362006260514731</v>
+        <v>0.9539315096628049</v>
       </c>
       <c r="H26">
-        <v>0.9478966363570642</v>
+        <v>1.073124679556563</v>
       </c>
       <c r="I26">
-        <v>0.9478966363570642</v>
+        <v>1.073124679556563</v>
       </c>
       <c r="J26">
-        <v>1.050606455621602</v>
+        <v>1.005072393960247</v>
       </c>
       <c r="K26">
-        <v>0.9362006260514731</v>
+        <v>0.9539315096628049</v>
       </c>
       <c r="L26">
-        <v>1.050606455621602</v>
+        <v>1.005072393960247</v>
       </c>
       <c r="M26">
-        <v>0.999251545989333</v>
+        <v>1.039098536758405</v>
       </c>
       <c r="N26">
-        <v>0.999251545989333</v>
+        <v>1.039098536758405</v>
       </c>
       <c r="O26">
-        <v>0.9855990627034018</v>
+        <v>1.028306587249701</v>
       </c>
       <c r="P26">
-        <v>0.9782345726767131</v>
+        <v>1.010709527726538</v>
       </c>
       <c r="Q26">
-        <v>0.9782345726767131</v>
+        <v>1.010709527726538</v>
       </c>
       <c r="R26">
-        <v>0.9677260860204031</v>
+        <v>0.996515023210605</v>
       </c>
       <c r="S26">
-        <v>0.9677260860204031</v>
+        <v>0.996515023210605</v>
       </c>
       <c r="T26">
-        <v>1.007712453367341</v>
+        <v>1.014729945879409</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9960418979476389</v>
+        <v>1.090077449511942</v>
       </c>
       <c r="D27">
-        <v>0.9897409777442462</v>
+        <v>1.012756073547441</v>
       </c>
       <c r="E27">
-        <v>1.001869475247258</v>
+        <v>0.8188118921669938</v>
       </c>
       <c r="F27">
-        <v>1.019088397406437</v>
+        <v>1.269403658436403</v>
       </c>
       <c r="G27">
-        <v>1.019088397406437</v>
+        <v>1.269403658436403</v>
       </c>
       <c r="H27">
-        <v>1.02916856422068</v>
+        <v>0.5832188854149466</v>
       </c>
       <c r="I27">
-        <v>1.02916856422068</v>
+        <v>0.5832188854149466</v>
       </c>
       <c r="J27">
-        <v>0.9866042293693498</v>
+        <v>1.01614767280845</v>
       </c>
       <c r="K27">
-        <v>1.019088397406437</v>
+        <v>1.269403658436403</v>
       </c>
       <c r="L27">
-        <v>0.9866042293693498</v>
+        <v>1.01614767280845</v>
       </c>
       <c r="M27">
-        <v>1.007886396795015</v>
+        <v>0.7996832791116981</v>
       </c>
       <c r="N27">
-        <v>1.007886396795015</v>
+        <v>0.7996832791116981</v>
       </c>
       <c r="O27">
-        <v>1.005880756279096</v>
+        <v>0.8060594834634633</v>
       </c>
       <c r="P27">
-        <v>1.011620396998822</v>
+        <v>0.9562567388865997</v>
       </c>
       <c r="Q27">
-        <v>1.011620396998822</v>
+        <v>0.9562567388865997</v>
       </c>
       <c r="R27">
-        <v>1.013487397100726</v>
+        <v>1.03454346877405</v>
       </c>
       <c r="S27">
-        <v>1.013487397100726</v>
+        <v>1.03454346877405</v>
       </c>
       <c r="T27">
-        <v>1.003752256989268</v>
+        <v>0.9650692719810294</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.016673394090891</v>
+        <v>1.017220793556042</v>
       </c>
       <c r="D28">
-        <v>1.037434300675824</v>
+        <v>1.136056112486327</v>
       </c>
       <c r="E28">
-        <v>0.9659947394974249</v>
+        <v>0.9582940961315396</v>
       </c>
       <c r="F28">
-        <v>1.012182108718982</v>
+        <v>0.9362006260514731</v>
       </c>
       <c r="G28">
-        <v>1.012182108718982</v>
+        <v>0.9362006260514731</v>
       </c>
       <c r="H28">
-        <v>0.9336221847721591</v>
+        <v>0.9478966363570642</v>
       </c>
       <c r="I28">
-        <v>0.9336221847721591</v>
+        <v>0.9478966363570642</v>
       </c>
       <c r="J28">
-        <v>1.018577173996684</v>
+        <v>1.050606455621602</v>
       </c>
       <c r="K28">
-        <v>1.012182108718982</v>
+        <v>0.9362006260514731</v>
       </c>
       <c r="L28">
-        <v>1.018577173996684</v>
+        <v>1.050606455621602</v>
       </c>
       <c r="M28">
-        <v>0.9760996793844214</v>
+        <v>0.999251545989333</v>
       </c>
       <c r="N28">
-        <v>0.9760996793844214</v>
+        <v>0.999251545989333</v>
       </c>
       <c r="O28">
-        <v>0.9727313660887559</v>
+        <v>0.9855990627034018</v>
       </c>
       <c r="P28">
-        <v>0.9881271558292751</v>
+        <v>0.9782345726767131</v>
       </c>
       <c r="Q28">
-        <v>0.9881271558292751</v>
+        <v>0.9782345726767131</v>
       </c>
       <c r="R28">
-        <v>0.9941408940517019</v>
+        <v>0.9677260860204031</v>
       </c>
       <c r="S28">
-        <v>0.9941408940517019</v>
+        <v>0.9677260860204031</v>
       </c>
       <c r="T28">
-        <v>0.9974139836253274</v>
+        <v>1.007712453367341</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9960418979476389</v>
+      </c>
+      <c r="D29">
+        <v>0.9897409777442462</v>
+      </c>
+      <c r="E29">
+        <v>1.001869475247258</v>
+      </c>
+      <c r="F29">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="G29">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="H29">
+        <v>1.02916856422068</v>
+      </c>
+      <c r="I29">
+        <v>1.02916856422068</v>
+      </c>
+      <c r="J29">
+        <v>0.9866042293693498</v>
+      </c>
+      <c r="K29">
+        <v>1.019088397406437</v>
+      </c>
+      <c r="L29">
+        <v>0.9866042293693498</v>
+      </c>
+      <c r="M29">
+        <v>1.007886396795015</v>
+      </c>
+      <c r="N29">
+        <v>1.007886396795015</v>
+      </c>
+      <c r="O29">
+        <v>1.005880756279096</v>
+      </c>
+      <c r="P29">
+        <v>1.011620396998822</v>
+      </c>
+      <c r="Q29">
+        <v>1.011620396998822</v>
+      </c>
+      <c r="R29">
+        <v>1.013487397100726</v>
+      </c>
+      <c r="S29">
+        <v>1.013487397100726</v>
+      </c>
+      <c r="T29">
+        <v>1.003752256989268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.016673394090891</v>
+      </c>
+      <c r="D30">
+        <v>1.037434300675824</v>
+      </c>
+      <c r="E30">
+        <v>0.9659947394974249</v>
+      </c>
+      <c r="F30">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="G30">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="H30">
+        <v>0.9336221847721591</v>
+      </c>
+      <c r="I30">
+        <v>0.9336221847721591</v>
+      </c>
+      <c r="J30">
+        <v>1.018577173996684</v>
+      </c>
+      <c r="K30">
+        <v>1.012182108718982</v>
+      </c>
+      <c r="L30">
+        <v>1.018577173996684</v>
+      </c>
+      <c r="M30">
+        <v>0.9760996793844214</v>
+      </c>
+      <c r="N30">
+        <v>0.9760996793844214</v>
+      </c>
+      <c r="O30">
+        <v>0.9727313660887559</v>
+      </c>
+      <c r="P30">
+        <v>0.9881271558292751</v>
+      </c>
+      <c r="Q30">
+        <v>0.9881271558292751</v>
+      </c>
+      <c r="R30">
+        <v>0.9941408940517019</v>
+      </c>
+      <c r="S30">
+        <v>0.9941408940517019</v>
+      </c>
+      <c r="T30">
+        <v>0.9974139836253274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.019539631990438</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.03584544429562</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9468789836383426</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.07424230606279</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.07424230606279</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9319867842915397</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9319867842915397</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9972517073817955</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.07424230606279</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9972517073817955</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9646192458366676</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9646192458366676</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9587058251038926</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001160265912042</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001160265912042</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.019430775949729</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.019430775949729</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000957476276754</v>
       </c>
     </row>
